--- a/excel/finished/6高炉/高炉消耗月报表.xlsx
+++ b/excel/finished/6高炉/高炉消耗月报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="月报表" sheetId="1" r:id="rId1"/>
@@ -123,214 +123,214 @@
     <t>BF6_L2M_BX_Productivity_1d_cur</t>
   </si>
   <si>
+    <t>BF6_L2C_MES_CR_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_MES_CON_PCI_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2C_MES_CON_FR_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_BX_COKE_confirmWgt_evt</t>
+  </si>
+  <si>
+    <t>BF6_L2M_BX_COAL_confirmWgt_evt</t>
+  </si>
+  <si>
+    <t>BF6_L2M_BX_SINTER_confirmWgt_evt</t>
+  </si>
+  <si>
+    <t>BF6_L2M_BX_LUMPORE_confirmWgt_evt</t>
+  </si>
+  <si>
+    <t>BF6_L2M_BX_PELLETS_confirmWgt_evt</t>
+  </si>
+  <si>
+    <t>BF6_L2M_SinterRatio_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_PelletsRatio_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_LumporeRatio_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_BX_OreRatio_1d_cur</t>
+  </si>
+  <si>
+    <t>ALL/TFe</t>
+  </si>
+  <si>
+    <t>ALL/Aggl</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_CokeLoad_1d_avg</t>
+  </si>
+  <si>
+    <t>BF6_L2M_BX_QUART_confirmWgt_evt</t>
+  </si>
+  <si>
+    <t>FLUORITE/batchMass</t>
+  </si>
+  <si>
+    <t>ILMENITE/batchMass</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_BFGFlowSum_1d_cur</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_COGFlowSum_1d_cur</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_N2FlowSum_1d_cur</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_O2FlowSum_1d_cur</t>
+  </si>
+  <si>
+    <t>BF6_L2C_BD_WaterAddFlowSum_1d_cur</t>
+  </si>
+  <si>
+    <t>全月</t>
+  </si>
+  <si>
+    <t>COKE/batchMass</t>
+  </si>
+  <si>
+    <t>SINTER/batchMass</t>
+  </si>
+  <si>
+    <t>LUMPORE/batchMass</t>
+  </si>
+  <si>
+    <t>PELLETS/batchMass</t>
+  </si>
+  <si>
+    <t>QUART/batchMass</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>DateTime1</t>
+  </si>
+  <si>
+    <t>2019年01月16日</t>
+  </si>
+  <si>
+    <t>DateTime2</t>
+  </si>
+  <si>
+    <t>01月16日</t>
+  </si>
+  <si>
+    <t>DateTime3</t>
+  </si>
+  <si>
+    <t>2019/01/16</t>
+  </si>
+  <si>
+    <t>DateTime4</t>
+  </si>
+  <si>
+    <t>01/16</t>
+  </si>
+  <si>
+    <t>DateTime5</t>
+  </si>
+  <si>
+    <t>01月</t>
+  </si>
+  <si>
+    <t>DateTime6</t>
+  </si>
+  <si>
+    <t>2019年01月</t>
+  </si>
+  <si>
+    <t>TemplateName</t>
+  </si>
+  <si>
+    <t>高炉消耗月报表</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>月表报</t>
+  </si>
+  <si>
+    <t>TemplatePath</t>
+  </si>
+  <si>
+    <t>/u01/reports/cn_zh/8高炉/月表报/高炉消耗月报表_2019-01-16.xlsx</t>
+  </si>
+  <si>
+    <t>AutoBuild</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>BuildUnit</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>AutoBuildDelay</t>
+  </si>
+  <si>
+    <t>AutoBuildDelayUnit</t>
+  </si>
+  <si>
+    <t>MINUTE</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>cn_zh</t>
+  </si>
+  <si>
+    <t>BlowingInDate</t>
+  </si>
+  <si>
+    <t>2019-01-16</t>
+  </si>
+  <si>
+    <t>Build_Type</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>Build_StartTime</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:05:00</t>
+  </si>
+  <si>
+    <t>Build_EndTime</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:05:02</t>
+  </si>
+  <si>
+    <t>ExcelFile</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
     <t>BF6_L2M_BX_CokeRate_1d_cur</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BX_CoalRate_1d_cur</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BX_FuelRate_1d_cur</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BX_COKE_confirmWgt_evt</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BX_COAL_confirmWgt_evt</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BX_SINTER_confirmWgt_evt</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BX_LUMPORE_confirmWgt_evt</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BX_PELLETS_confirmWgt_evt</t>
-  </si>
-  <si>
-    <t>BF6_L2M_SinterRatio_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_PelletsRatio_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_LumporeRatio_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BX_OreRatio_1d_cur</t>
-  </si>
-  <si>
-    <t>ALL/TFe</t>
-  </si>
-  <si>
-    <t>ALL/Aggl</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_CokeLoad_1d_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BX_QUART_confirmWgt_evt</t>
-  </si>
-  <si>
-    <t>FLUORITE/batchMass</t>
-  </si>
-  <si>
-    <t>ILMENITE/batchMass</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_BFGFlowSum_1d_cur</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_COGFlowSum_1d_cur</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_N2FlowSum_1d_cur</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_O2FlowSum_1d_cur</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_WaterAddFlowSum_1d_cur</t>
-  </si>
-  <si>
-    <t>全月</t>
-  </si>
-  <si>
-    <t>COKE/batchMass</t>
-  </si>
-  <si>
-    <t>SINTER/batchMass</t>
-  </si>
-  <si>
-    <t>LUMPORE/batchMass</t>
-  </si>
-  <si>
-    <t>PELLETS/batchMass</t>
-  </si>
-  <si>
-    <t>QUART/batchMass</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>DateTime1</t>
-  </si>
-  <si>
-    <t>2019年01月16日</t>
-  </si>
-  <si>
-    <t>DateTime2</t>
-  </si>
-  <si>
-    <t>01月16日</t>
-  </si>
-  <si>
-    <t>DateTime3</t>
-  </si>
-  <si>
-    <t>2019/01/16</t>
-  </si>
-  <si>
-    <t>DateTime4</t>
-  </si>
-  <si>
-    <t>01/16</t>
-  </si>
-  <si>
-    <t>DateTime5</t>
-  </si>
-  <si>
-    <t>01月</t>
-  </si>
-  <si>
-    <t>DateTime6</t>
-  </si>
-  <si>
-    <t>2019年01月</t>
-  </si>
-  <si>
-    <t>TemplateName</t>
-  </si>
-  <si>
-    <t>高炉消耗月报表</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>月表报</t>
-  </si>
-  <si>
-    <t>TemplatePath</t>
-  </si>
-  <si>
-    <t>/u01/reports/cn_zh/8高炉/月表报/高炉消耗月报表_2019-01-16.xlsx</t>
-  </si>
-  <si>
-    <t>AutoBuild</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Build</t>
-  </si>
-  <si>
-    <t>BuildUnit</t>
-  </si>
-  <si>
-    <t>HOUR</t>
-  </si>
-  <si>
-    <t>AutoBuildDelay</t>
-  </si>
-  <si>
-    <t>AutoBuildDelayUnit</t>
-  </si>
-  <si>
-    <t>MINUTE</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>cn_zh</t>
-  </si>
-  <si>
-    <t>BlowingInDate</t>
-  </si>
-  <si>
-    <t>2019-01-16</t>
-  </si>
-  <si>
-    <t>Build_Type</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
-    <t>Build_StartTime</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:05:00</t>
-  </si>
-  <si>
-    <t>Build_EndTime</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:05:02</t>
-  </si>
-  <si>
-    <t>ExcelFile</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BX_NTCokeRate_1d_cur</t>
   </si>
   <si>
     <t>BF6_L2M_NTCokeRate_1d_avg</t>
@@ -341,13 +341,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,9 +383,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +414,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -407,16 +496,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,28 +513,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -461,76 +521,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -555,7 +548,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,37 +656,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,121 +716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,6 +821,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -838,6 +855,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,21 +879,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,18 +900,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,27 +917,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,10 +935,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,127 +947,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1543,7 +1536,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1809,7 +1802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" ht="13.5" spans="1:27">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -1822,15 +1815,15 @@
         <v/>
       </c>
       <c r="D5" s="23" t="str">
-        <f>IF(_tag_month_all!D3+_tag_month_all!C3=0,"",_tag_month_all!D3+_tag_month_all!C3)</f>
+        <f>IF(_tag_month_all!C2="","",_tag_month_all!C2)</f>
         <v/>
       </c>
       <c r="E5" s="23" t="str">
-        <f>IF(_tag_month_all!E3=0,"",_tag_month_all!E3)</f>
+        <f>IF(_tag_month_all!E2="","",_tag_month_all!E2)</f>
         <v/>
       </c>
       <c r="F5" s="23" t="str">
-        <f>IF(_tag_month_all!F3=0,"",_tag_month_all!F3)</f>
+        <f>IF(_tag_month_all!F2="","",_tag_month_all!F2)</f>
         <v/>
       </c>
       <c r="G5" s="23" t="str">
@@ -1854,15 +1847,15 @@
         <v/>
       </c>
       <c r="L5" s="24" t="str">
-        <f>IF(_tag_month_all!L3=0,"",_tag_month_all!L3)</f>
+        <f>IF(_tag_month_all!I2=0,"",_tag_month_all!I2/SUM(_tag_month_all!$I2,_tag_month_all!$J2,_tag_month_all!$K2))</f>
         <v/>
       </c>
       <c r="M5" s="24" t="str">
-        <f>IF(_tag_month_all!M3=0,"",_tag_month_all!M3)</f>
+        <f>IF(_tag_month_all!J2=0,"",_tag_month_all!J2/SUM(_tag_month_all!$I2,_tag_month_all!$J2,_tag_month_all!$K2))</f>
         <v/>
       </c>
       <c r="N5" s="24" t="str">
-        <f>IF(_tag_month_all!N3=0,"",_tag_month_all!N3)</f>
+        <f>IF(_tag_month_all!K2=0,"",_tag_month_all!K2/SUM(_tag_month_all!$I2,_tag_month_all!$J2,_tag_month_all!$K2))</f>
         <v/>
       </c>
       <c r="O5" s="32" t="str">
@@ -1878,7 +1871,7 @@
         <v/>
       </c>
       <c r="R5" s="32" t="str">
-        <f>IF(_tag_month_all!R3=0,"",_tag_month_all!R3)</f>
+        <f t="shared" ref="R5:R35" si="0">IFERROR(SUM(I5:K5)/G5,"")</f>
         <v/>
       </c>
       <c r="S5" s="23" t="str">
@@ -1918,7 +1911,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" ht="13.5" spans="1:27">
       <c r="A6" s="22">
         <v>2</v>
       </c>
@@ -1931,15 +1924,15 @@
         <v/>
       </c>
       <c r="D6" s="23" t="str">
-        <f>IF(_tag_month_all!D4+_tag_month_all!C4=0,"",_tag_month_all!D4+_tag_month_all!C4)</f>
+        <f>IF(_tag_month_all!C3="","",_tag_month_all!C3)</f>
         <v/>
       </c>
       <c r="E6" s="23" t="str">
-        <f>IF(_tag_month_all!E4=0,"",_tag_month_all!E4)</f>
+        <f>IF(_tag_month_all!E3="","",_tag_month_all!E3)</f>
         <v/>
       </c>
       <c r="F6" s="23" t="str">
-        <f>IF(_tag_month_all!F4=0,"",_tag_month_all!F4)</f>
+        <f>IF(_tag_month_all!F3="","",_tag_month_all!F3)</f>
         <v/>
       </c>
       <c r="G6" s="23" t="str">
@@ -1963,15 +1956,15 @@
         <v/>
       </c>
       <c r="L6" s="24" t="str">
-        <f>IF(_tag_month_all!L4=0,"",_tag_month_all!L4)</f>
+        <f>IF(_tag_month_all!I3=0,"",_tag_month_all!I3/SUM(_tag_month_all!$I3,_tag_month_all!$J3,_tag_month_all!$K3))</f>
         <v/>
       </c>
       <c r="M6" s="24" t="str">
-        <f>IF(_tag_month_all!M4=0,"",_tag_month_all!M4)</f>
+        <f>IF(_tag_month_all!J3=0,"",_tag_month_all!J3/SUM(_tag_month_all!$I3,_tag_month_all!$J3,_tag_month_all!$K3))</f>
         <v/>
       </c>
       <c r="N6" s="24" t="str">
-        <f>IF(_tag_month_all!N4=0,"",_tag_month_all!N4)</f>
+        <f>IF(_tag_month_all!K3=0,"",_tag_month_all!K3/SUM(_tag_month_all!$I3,_tag_month_all!$J3,_tag_month_all!$K3))</f>
         <v/>
       </c>
       <c r="O6" s="32" t="str">
@@ -1987,7 +1980,7 @@
         <v/>
       </c>
       <c r="R6" s="32" t="str">
-        <f>IF(_tag_month_all!R4=0,"",_tag_month_all!R4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S6" s="23" t="str">
@@ -2040,15 +2033,15 @@
         <v/>
       </c>
       <c r="D7" s="23" t="str">
-        <f>IF(_tag_month_all!D5+_tag_month_all!C5=0,"",_tag_month_all!D5+_tag_month_all!C5)</f>
+        <f>IF(_tag_month_all!C4="","",_tag_month_all!C4)</f>
         <v/>
       </c>
       <c r="E7" s="23" t="str">
-        <f>IF(_tag_month_all!E5=0,"",_tag_month_all!E5)</f>
+        <f>IF(_tag_month_all!E4="","",_tag_month_all!E4)</f>
         <v/>
       </c>
       <c r="F7" s="23" t="str">
-        <f>IF(_tag_month_all!F5=0,"",_tag_month_all!F5)</f>
+        <f>IF(_tag_month_all!F4="","",_tag_month_all!F4)</f>
         <v/>
       </c>
       <c r="G7" s="23" t="str">
@@ -2072,15 +2065,15 @@
         <v/>
       </c>
       <c r="L7" s="24" t="str">
-        <f>IF(_tag_month_all!L5=0,"",_tag_month_all!L5)</f>
+        <f>IF(_tag_month_all!I4=0,"",_tag_month_all!I4/SUM(_tag_month_all!$I4,_tag_month_all!$J4,_tag_month_all!$K4))</f>
         <v/>
       </c>
       <c r="M7" s="24" t="str">
-        <f>IF(_tag_month_all!M5=0,"",_tag_month_all!M5)</f>
+        <f>IF(_tag_month_all!J4=0,"",_tag_month_all!J4/SUM(_tag_month_all!$I4,_tag_month_all!$J4,_tag_month_all!$K4))</f>
         <v/>
       </c>
       <c r="N7" s="24" t="str">
-        <f>IF(_tag_month_all!N5=0,"",_tag_month_all!N5)</f>
+        <f>IF(_tag_month_all!K4=0,"",_tag_month_all!K4/SUM(_tag_month_all!$I4,_tag_month_all!$J4,_tag_month_all!$K4))</f>
         <v/>
       </c>
       <c r="O7" s="32" t="str">
@@ -2096,7 +2089,7 @@
         <v/>
       </c>
       <c r="R7" s="32" t="str">
-        <f>IF(_tag_month_all!R5=0,"",_tag_month_all!R5)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S7" s="23" t="str">
@@ -2149,15 +2142,15 @@
         <v/>
       </c>
       <c r="D8" s="23" t="str">
-        <f>IF(_tag_month_all!D6+_tag_month_all!C6=0,"",_tag_month_all!D6+_tag_month_all!C6)</f>
+        <f>IF(_tag_month_all!C5="","",_tag_month_all!C5)</f>
         <v/>
       </c>
       <c r="E8" s="23" t="str">
-        <f>IF(_tag_month_all!E6=0,"",_tag_month_all!E6)</f>
+        <f>IF(_tag_month_all!E5="","",_tag_month_all!E5)</f>
         <v/>
       </c>
       <c r="F8" s="23" t="str">
-        <f>IF(_tag_month_all!F6=0,"",_tag_month_all!F6)</f>
+        <f>IF(_tag_month_all!F5="","",_tag_month_all!F5)</f>
         <v/>
       </c>
       <c r="G8" s="23" t="str">
@@ -2181,15 +2174,15 @@
         <v/>
       </c>
       <c r="L8" s="24" t="str">
-        <f>IF(_tag_month_all!L6=0,"",_tag_month_all!L6)</f>
+        <f>IF(_tag_month_all!I5=0,"",_tag_month_all!I5/SUM(_tag_month_all!$I5,_tag_month_all!$J5,_tag_month_all!$K5))</f>
         <v/>
       </c>
       <c r="M8" s="24" t="str">
-        <f>IF(_tag_month_all!M6=0,"",_tag_month_all!M6)</f>
+        <f>IF(_tag_month_all!J5=0,"",_tag_month_all!J5/SUM(_tag_month_all!$I5,_tag_month_all!$J5,_tag_month_all!$K5))</f>
         <v/>
       </c>
       <c r="N8" s="24" t="str">
-        <f>IF(_tag_month_all!N6=0,"",_tag_month_all!N6)</f>
+        <f>IF(_tag_month_all!K5=0,"",_tag_month_all!K5/SUM(_tag_month_all!$I5,_tag_month_all!$J5,_tag_month_all!$K5))</f>
         <v/>
       </c>
       <c r="O8" s="32" t="str">
@@ -2205,7 +2198,7 @@
         <v/>
       </c>
       <c r="R8" s="32" t="str">
-        <f>IF(_tag_month_all!R6=0,"",_tag_month_all!R6)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S8" s="23" t="str">
@@ -2258,15 +2251,15 @@
         <v/>
       </c>
       <c r="D9" s="23" t="str">
-        <f>IF(_tag_month_all!D7+_tag_month_all!C7=0,"",_tag_month_all!D7+_tag_month_all!C7)</f>
+        <f>IF(_tag_month_all!C6="","",_tag_month_all!C6)</f>
         <v/>
       </c>
       <c r="E9" s="23" t="str">
-        <f>IF(_tag_month_all!E7=0,"",_tag_month_all!E7)</f>
+        <f>IF(_tag_month_all!E6="","",_tag_month_all!E6)</f>
         <v/>
       </c>
       <c r="F9" s="23" t="str">
-        <f>IF(_tag_month_all!F7=0,"",_tag_month_all!F7)</f>
+        <f>IF(_tag_month_all!F6="","",_tag_month_all!F6)</f>
         <v/>
       </c>
       <c r="G9" s="23" t="str">
@@ -2290,15 +2283,15 @@
         <v/>
       </c>
       <c r="L9" s="24" t="str">
-        <f>IF(_tag_month_all!L7=0,"",_tag_month_all!L7)</f>
+        <f>IF(_tag_month_all!I6=0,"",_tag_month_all!I6/SUM(_tag_month_all!$I6,_tag_month_all!$J6,_tag_month_all!$K6))</f>
         <v/>
       </c>
       <c r="M9" s="24" t="str">
-        <f>IF(_tag_month_all!M7=0,"",_tag_month_all!M7)</f>
+        <f>IF(_tag_month_all!J6=0,"",_tag_month_all!J6/SUM(_tag_month_all!$I6,_tag_month_all!$J6,_tag_month_all!$K6))</f>
         <v/>
       </c>
       <c r="N9" s="24" t="str">
-        <f>IF(_tag_month_all!N7=0,"",_tag_month_all!N7)</f>
+        <f>IF(_tag_month_all!K6=0,"",_tag_month_all!K6/SUM(_tag_month_all!$I6,_tag_month_all!$J6,_tag_month_all!$K6))</f>
         <v/>
       </c>
       <c r="O9" s="32" t="str">
@@ -2314,7 +2307,7 @@
         <v/>
       </c>
       <c r="R9" s="32" t="str">
-        <f>IF(_tag_month_all!R7=0,"",_tag_month_all!R7)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S9" s="23" t="str">
@@ -2367,15 +2360,15 @@
         <v/>
       </c>
       <c r="D10" s="23" t="str">
-        <f>IF(_tag_month_all!D8+_tag_month_all!C8=0,"",_tag_month_all!D8+_tag_month_all!C8)</f>
+        <f>IF(_tag_month_all!C7="","",_tag_month_all!C7)</f>
         <v/>
       </c>
       <c r="E10" s="23" t="str">
-        <f>IF(_tag_month_all!E8=0,"",_tag_month_all!E8)</f>
+        <f>IF(_tag_month_all!E7="","",_tag_month_all!E7)</f>
         <v/>
       </c>
       <c r="F10" s="23" t="str">
-        <f>IF(_tag_month_all!F8=0,"",_tag_month_all!F8)</f>
+        <f>IF(_tag_month_all!F7="","",_tag_month_all!F7)</f>
         <v/>
       </c>
       <c r="G10" s="23" t="str">
@@ -2399,15 +2392,15 @@
         <v/>
       </c>
       <c r="L10" s="24" t="str">
-        <f>IF(_tag_month_all!L8=0,"",_tag_month_all!L8)</f>
+        <f>IF(_tag_month_all!I7=0,"",_tag_month_all!I7/SUM(_tag_month_all!$I7,_tag_month_all!$J7,_tag_month_all!$K7))</f>
         <v/>
       </c>
       <c r="M10" s="24" t="str">
-        <f>IF(_tag_month_all!M8=0,"",_tag_month_all!M8)</f>
+        <f>IF(_tag_month_all!J7=0,"",_tag_month_all!J7/SUM(_tag_month_all!$I7,_tag_month_all!$J7,_tag_month_all!$K7))</f>
         <v/>
       </c>
       <c r="N10" s="24" t="str">
-        <f>IF(_tag_month_all!N8=0,"",_tag_month_all!N8)</f>
+        <f>IF(_tag_month_all!K7=0,"",_tag_month_all!K7/SUM(_tag_month_all!$I7,_tag_month_all!$J7,_tag_month_all!$K7))</f>
         <v/>
       </c>
       <c r="O10" s="32" t="str">
@@ -2423,7 +2416,7 @@
         <v/>
       </c>
       <c r="R10" s="32" t="str">
-        <f>IF(_tag_month_all!R8=0,"",_tag_month_all!R8)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S10" s="23" t="str">
@@ -2476,15 +2469,15 @@
         <v/>
       </c>
       <c r="D11" s="23" t="str">
-        <f>IF(_tag_month_all!D9+_tag_month_all!C9=0,"",_tag_month_all!D9+_tag_month_all!C9)</f>
+        <f>IF(_tag_month_all!C8="","",_tag_month_all!C8)</f>
         <v/>
       </c>
       <c r="E11" s="23" t="str">
-        <f>IF(_tag_month_all!E9=0,"",_tag_month_all!E9)</f>
+        <f>IF(_tag_month_all!E8="","",_tag_month_all!E8)</f>
         <v/>
       </c>
       <c r="F11" s="23" t="str">
-        <f>IF(_tag_month_all!F9=0,"",_tag_month_all!F9)</f>
+        <f>IF(_tag_month_all!F8="","",_tag_month_all!F8)</f>
         <v/>
       </c>
       <c r="G11" s="23" t="str">
@@ -2508,15 +2501,15 @@
         <v/>
       </c>
       <c r="L11" s="24" t="str">
-        <f>IF(_tag_month_all!L9=0,"",_tag_month_all!L9)</f>
+        <f>IF(_tag_month_all!I8=0,"",_tag_month_all!I8/SUM(_tag_month_all!$I8,_tag_month_all!$J8,_tag_month_all!$K8))</f>
         <v/>
       </c>
       <c r="M11" s="24" t="str">
-        <f>IF(_tag_month_all!M9=0,"",_tag_month_all!M9)</f>
+        <f>IF(_tag_month_all!J8=0,"",_tag_month_all!J8/SUM(_tag_month_all!$I8,_tag_month_all!$J8,_tag_month_all!$K8))</f>
         <v/>
       </c>
       <c r="N11" s="24" t="str">
-        <f>IF(_tag_month_all!N9=0,"",_tag_month_all!N9)</f>
+        <f>IF(_tag_month_all!K8=0,"",_tag_month_all!K8/SUM(_tag_month_all!$I8,_tag_month_all!$J8,_tag_month_all!$K8))</f>
         <v/>
       </c>
       <c r="O11" s="32" t="str">
@@ -2532,7 +2525,7 @@
         <v/>
       </c>
       <c r="R11" s="32" t="str">
-        <f>IF(_tag_month_all!R9=0,"",_tag_month_all!R9)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S11" s="23" t="str">
@@ -2585,15 +2578,15 @@
         <v/>
       </c>
       <c r="D12" s="23" t="str">
-        <f>IF(_tag_month_all!D10+_tag_month_all!C10=0,"",_tag_month_all!D10+_tag_month_all!C10)</f>
+        <f>IF(_tag_month_all!C9="","",_tag_month_all!C9)</f>
         <v/>
       </c>
       <c r="E12" s="23" t="str">
-        <f>IF(_tag_month_all!E10=0,"",_tag_month_all!E10)</f>
+        <f>IF(_tag_month_all!E9="","",_tag_month_all!E9)</f>
         <v/>
       </c>
       <c r="F12" s="23" t="str">
-        <f>IF(_tag_month_all!F10=0,"",_tag_month_all!F10)</f>
+        <f>IF(_tag_month_all!F9="","",_tag_month_all!F9)</f>
         <v/>
       </c>
       <c r="G12" s="23" t="str">
@@ -2617,15 +2610,15 @@
         <v/>
       </c>
       <c r="L12" s="24" t="str">
-        <f>IF(_tag_month_all!L10=0,"",_tag_month_all!L10)</f>
+        <f>IF(_tag_month_all!I9=0,"",_tag_month_all!I9/SUM(_tag_month_all!$I9,_tag_month_all!$J9,_tag_month_all!$K9))</f>
         <v/>
       </c>
       <c r="M12" s="24" t="str">
-        <f>IF(_tag_month_all!M10=0,"",_tag_month_all!M10)</f>
+        <f>IF(_tag_month_all!J9=0,"",_tag_month_all!J9/SUM(_tag_month_all!$I9,_tag_month_all!$J9,_tag_month_all!$K9))</f>
         <v/>
       </c>
       <c r="N12" s="24" t="str">
-        <f>IF(_tag_month_all!N10=0,"",_tag_month_all!N10)</f>
+        <f>IF(_tag_month_all!K9=0,"",_tag_month_all!K9/SUM(_tag_month_all!$I9,_tag_month_all!$J9,_tag_month_all!$K9))</f>
         <v/>
       </c>
       <c r="O12" s="32" t="str">
@@ -2641,7 +2634,7 @@
         <v/>
       </c>
       <c r="R12" s="32" t="str">
-        <f>IF(_tag_month_all!R10=0,"",_tag_month_all!R10)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S12" s="23" t="str">
@@ -2694,15 +2687,15 @@
         <v/>
       </c>
       <c r="D13" s="23" t="str">
-        <f>IF(_tag_month_all!D11+_tag_month_all!C11=0,"",_tag_month_all!D11+_tag_month_all!C11)</f>
+        <f>IF(_tag_month_all!C10="","",_tag_month_all!C10)</f>
         <v/>
       </c>
       <c r="E13" s="23" t="str">
-        <f>IF(_tag_month_all!E11=0,"",_tag_month_all!E11)</f>
+        <f>IF(_tag_month_all!E10="","",_tag_month_all!E10)</f>
         <v/>
       </c>
       <c r="F13" s="23" t="str">
-        <f>IF(_tag_month_all!F11=0,"",_tag_month_all!F11)</f>
+        <f>IF(_tag_month_all!F10="","",_tag_month_all!F10)</f>
         <v/>
       </c>
       <c r="G13" s="23" t="str">
@@ -2726,15 +2719,15 @@
         <v/>
       </c>
       <c r="L13" s="24" t="str">
-        <f>IF(_tag_month_all!L11=0,"",_tag_month_all!L11)</f>
+        <f>IF(_tag_month_all!I10=0,"",_tag_month_all!I10/SUM(_tag_month_all!$I10,_tag_month_all!$J10,_tag_month_all!$K10))</f>
         <v/>
       </c>
       <c r="M13" s="24" t="str">
-        <f>IF(_tag_month_all!M11=0,"",_tag_month_all!M11)</f>
+        <f>IF(_tag_month_all!J10=0,"",_tag_month_all!J10/SUM(_tag_month_all!$I10,_tag_month_all!$J10,_tag_month_all!$K10))</f>
         <v/>
       </c>
       <c r="N13" s="24" t="str">
-        <f>IF(_tag_month_all!N11=0,"",_tag_month_all!N11)</f>
+        <f>IF(_tag_month_all!K10=0,"",_tag_month_all!K10/SUM(_tag_month_all!$I10,_tag_month_all!$J10,_tag_month_all!$K10))</f>
         <v/>
       </c>
       <c r="O13" s="32" t="str">
@@ -2750,7 +2743,7 @@
         <v/>
       </c>
       <c r="R13" s="32" t="str">
-        <f>IF(_tag_month_all!R11=0,"",_tag_month_all!R11)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S13" s="23" t="str">
@@ -2803,15 +2796,15 @@
         <v/>
       </c>
       <c r="D14" s="23" t="str">
-        <f>IF(_tag_month_all!D12+_tag_month_all!C12=0,"",_tag_month_all!D12+_tag_month_all!C12)</f>
+        <f>IF(_tag_month_all!C11="","",_tag_month_all!C11)</f>
         <v/>
       </c>
       <c r="E14" s="23" t="str">
-        <f>IF(_tag_month_all!E12=0,"",_tag_month_all!E12)</f>
+        <f>IF(_tag_month_all!E11="","",_tag_month_all!E11)</f>
         <v/>
       </c>
       <c r="F14" s="23" t="str">
-        <f>IF(_tag_month_all!F12=0,"",_tag_month_all!F12)</f>
+        <f>IF(_tag_month_all!F11="","",_tag_month_all!F11)</f>
         <v/>
       </c>
       <c r="G14" s="23" t="str">
@@ -2835,15 +2828,15 @@
         <v/>
       </c>
       <c r="L14" s="24" t="str">
-        <f>IF(_tag_month_all!L12=0,"",_tag_month_all!L12)</f>
+        <f>IF(_tag_month_all!I11=0,"",_tag_month_all!I11/SUM(_tag_month_all!$I11,_tag_month_all!$J11,_tag_month_all!$K11))</f>
         <v/>
       </c>
       <c r="M14" s="24" t="str">
-        <f>IF(_tag_month_all!M12=0,"",_tag_month_all!M12)</f>
+        <f>IF(_tag_month_all!J11=0,"",_tag_month_all!J11/SUM(_tag_month_all!$I11,_tag_month_all!$J11,_tag_month_all!$K11))</f>
         <v/>
       </c>
       <c r="N14" s="24" t="str">
-        <f>IF(_tag_month_all!N12=0,"",_tag_month_all!N12)</f>
+        <f>IF(_tag_month_all!K11=0,"",_tag_month_all!K11/SUM(_tag_month_all!$I11,_tag_month_all!$J11,_tag_month_all!$K11))</f>
         <v/>
       </c>
       <c r="O14" s="32" t="str">
@@ -2859,7 +2852,7 @@
         <v/>
       </c>
       <c r="R14" s="32" t="str">
-        <f>IF(_tag_month_all!R12=0,"",_tag_month_all!R12)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S14" s="23" t="str">
@@ -2912,15 +2905,15 @@
         <v/>
       </c>
       <c r="D15" s="23" t="str">
-        <f>IF(_tag_month_all!D13+_tag_month_all!C13=0,"",_tag_month_all!D13+_tag_month_all!C13)</f>
+        <f>IF(_tag_month_all!C12="","",_tag_month_all!C12)</f>
         <v/>
       </c>
       <c r="E15" s="23" t="str">
-        <f>IF(_tag_month_all!E13=0,"",_tag_month_all!E13)</f>
+        <f>IF(_tag_month_all!E12="","",_tag_month_all!E12)</f>
         <v/>
       </c>
       <c r="F15" s="23" t="str">
-        <f>IF(_tag_month_all!F13=0,"",_tag_month_all!F13)</f>
+        <f>IF(_tag_month_all!F12="","",_tag_month_all!F12)</f>
         <v/>
       </c>
       <c r="G15" s="23" t="str">
@@ -2944,15 +2937,15 @@
         <v/>
       </c>
       <c r="L15" s="24" t="str">
-        <f>IF(_tag_month_all!L13=0,"",_tag_month_all!L13)</f>
+        <f>IF(_tag_month_all!I12=0,"",_tag_month_all!I12/SUM(_tag_month_all!$I12,_tag_month_all!$J12,_tag_month_all!$K12))</f>
         <v/>
       </c>
       <c r="M15" s="24" t="str">
-        <f>IF(_tag_month_all!M13=0,"",_tag_month_all!M13)</f>
+        <f>IF(_tag_month_all!J12=0,"",_tag_month_all!J12/SUM(_tag_month_all!$I12,_tag_month_all!$J12,_tag_month_all!$K12))</f>
         <v/>
       </c>
       <c r="N15" s="24" t="str">
-        <f>IF(_tag_month_all!N13=0,"",_tag_month_all!N13)</f>
+        <f>IF(_tag_month_all!K12=0,"",_tag_month_all!K12/SUM(_tag_month_all!$I12,_tag_month_all!$J12,_tag_month_all!$K12))</f>
         <v/>
       </c>
       <c r="O15" s="32" t="str">
@@ -2968,7 +2961,7 @@
         <v/>
       </c>
       <c r="R15" s="32" t="str">
-        <f>IF(_tag_month_all!R13=0,"",_tag_month_all!R13)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S15" s="23" t="str">
@@ -3021,15 +3014,15 @@
         <v/>
       </c>
       <c r="D16" s="23" t="str">
-        <f>IF(_tag_month_all!D14+_tag_month_all!C14=0,"",_tag_month_all!D14+_tag_month_all!C14)</f>
+        <f>IF(_tag_month_all!C13="","",_tag_month_all!C13)</f>
         <v/>
       </c>
       <c r="E16" s="23" t="str">
-        <f>IF(_tag_month_all!E14=0,"",_tag_month_all!E14)</f>
+        <f>IF(_tag_month_all!E13="","",_tag_month_all!E13)</f>
         <v/>
       </c>
       <c r="F16" s="23" t="str">
-        <f>IF(_tag_month_all!F14=0,"",_tag_month_all!F14)</f>
+        <f>IF(_tag_month_all!F13="","",_tag_month_all!F13)</f>
         <v/>
       </c>
       <c r="G16" s="23" t="str">
@@ -3053,15 +3046,15 @@
         <v/>
       </c>
       <c r="L16" s="24" t="str">
-        <f>IF(_tag_month_all!L14=0,"",_tag_month_all!L14)</f>
+        <f>IF(_tag_month_all!I13=0,"",_tag_month_all!I13/SUM(_tag_month_all!$I13,_tag_month_all!$J13,_tag_month_all!$K13))</f>
         <v/>
       </c>
       <c r="M16" s="24" t="str">
-        <f>IF(_tag_month_all!M14=0,"",_tag_month_all!M14)</f>
+        <f>IF(_tag_month_all!J13=0,"",_tag_month_all!J13/SUM(_tag_month_all!$I13,_tag_month_all!$J13,_tag_month_all!$K13))</f>
         <v/>
       </c>
       <c r="N16" s="24" t="str">
-        <f>IF(_tag_month_all!N14=0,"",_tag_month_all!N14)</f>
+        <f>IF(_tag_month_all!K13=0,"",_tag_month_all!K13/SUM(_tag_month_all!$I13,_tag_month_all!$J13,_tag_month_all!$K13))</f>
         <v/>
       </c>
       <c r="O16" s="32" t="str">
@@ -3077,7 +3070,7 @@
         <v/>
       </c>
       <c r="R16" s="32" t="str">
-        <f>IF(_tag_month_all!R14=0,"",_tag_month_all!R14)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S16" s="23" t="str">
@@ -3130,15 +3123,15 @@
         <v/>
       </c>
       <c r="D17" s="23" t="str">
-        <f>IF(_tag_month_all!D15+_tag_month_all!C15=0,"",_tag_month_all!D15+_tag_month_all!C15)</f>
+        <f>IF(_tag_month_all!C14="","",_tag_month_all!C14)</f>
         <v/>
       </c>
       <c r="E17" s="23" t="str">
-        <f>IF(_tag_month_all!E15=0,"",_tag_month_all!E15)</f>
+        <f>IF(_tag_month_all!E14="","",_tag_month_all!E14)</f>
         <v/>
       </c>
       <c r="F17" s="23" t="str">
-        <f>IF(_tag_month_all!F15=0,"",_tag_month_all!F15)</f>
+        <f>IF(_tag_month_all!F14="","",_tag_month_all!F14)</f>
         <v/>
       </c>
       <c r="G17" s="23" t="str">
@@ -3162,15 +3155,15 @@
         <v/>
       </c>
       <c r="L17" s="24" t="str">
-        <f>IF(_tag_month_all!L15=0,"",_tag_month_all!L15)</f>
+        <f>IF(_tag_month_all!I14=0,"",_tag_month_all!I14/SUM(_tag_month_all!$I14,_tag_month_all!$J14,_tag_month_all!$K14))</f>
         <v/>
       </c>
       <c r="M17" s="24" t="str">
-        <f>IF(_tag_month_all!M15=0,"",_tag_month_all!M15)</f>
+        <f>IF(_tag_month_all!J14=0,"",_tag_month_all!J14/SUM(_tag_month_all!$I14,_tag_month_all!$J14,_tag_month_all!$K14))</f>
         <v/>
       </c>
       <c r="N17" s="24" t="str">
-        <f>IF(_tag_month_all!N15=0,"",_tag_month_all!N15)</f>
+        <f>IF(_tag_month_all!K14=0,"",_tag_month_all!K14/SUM(_tag_month_all!$I14,_tag_month_all!$J14,_tag_month_all!$K14))</f>
         <v/>
       </c>
       <c r="O17" s="32" t="str">
@@ -3186,7 +3179,7 @@
         <v/>
       </c>
       <c r="R17" s="32" t="str">
-        <f>IF(_tag_month_all!R15=0,"",_tag_month_all!R15)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S17" s="23" t="str">
@@ -3239,15 +3232,15 @@
         <v/>
       </c>
       <c r="D18" s="23" t="str">
-        <f>IF(_tag_month_all!D16+_tag_month_all!C16=0,"",_tag_month_all!D16+_tag_month_all!C16)</f>
+        <f>IF(_tag_month_all!C15="","",_tag_month_all!C15)</f>
         <v/>
       </c>
       <c r="E18" s="23" t="str">
-        <f>IF(_tag_month_all!E16=0,"",_tag_month_all!E16)</f>
+        <f>IF(_tag_month_all!E15="","",_tag_month_all!E15)</f>
         <v/>
       </c>
       <c r="F18" s="23" t="str">
-        <f>IF(_tag_month_all!F16=0,"",_tag_month_all!F16)</f>
+        <f>IF(_tag_month_all!F15="","",_tag_month_all!F15)</f>
         <v/>
       </c>
       <c r="G18" s="23" t="str">
@@ -3271,15 +3264,15 @@
         <v/>
       </c>
       <c r="L18" s="24" t="str">
-        <f>IF(_tag_month_all!L16=0,"",_tag_month_all!L16)</f>
+        <f>IF(_tag_month_all!I15=0,"",_tag_month_all!I15/SUM(_tag_month_all!$I15,_tag_month_all!$J15,_tag_month_all!$K15))</f>
         <v/>
       </c>
       <c r="M18" s="24" t="str">
-        <f>IF(_tag_month_all!M16=0,"",_tag_month_all!M16)</f>
+        <f>IF(_tag_month_all!J15=0,"",_tag_month_all!J15/SUM(_tag_month_all!$I15,_tag_month_all!$J15,_tag_month_all!$K15))</f>
         <v/>
       </c>
       <c r="N18" s="24" t="str">
-        <f>IF(_tag_month_all!N16=0,"",_tag_month_all!N16)</f>
+        <f>IF(_tag_month_all!K15=0,"",_tag_month_all!K15/SUM(_tag_month_all!$I15,_tag_month_all!$J15,_tag_month_all!$K15))</f>
         <v/>
       </c>
       <c r="O18" s="32" t="str">
@@ -3295,7 +3288,7 @@
         <v/>
       </c>
       <c r="R18" s="32" t="str">
-        <f>IF(_tag_month_all!R16=0,"",_tag_month_all!R16)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S18" s="23" t="str">
@@ -3348,15 +3341,15 @@
         <v/>
       </c>
       <c r="D19" s="23" t="str">
-        <f>IF(_tag_month_all!D17+_tag_month_all!C17=0,"",_tag_month_all!D17+_tag_month_all!C17)</f>
+        <f>IF(_tag_month_all!C16="","",_tag_month_all!C16)</f>
         <v/>
       </c>
       <c r="E19" s="23" t="str">
-        <f>IF(_tag_month_all!E17=0,"",_tag_month_all!E17)</f>
+        <f>IF(_tag_month_all!E16="","",_tag_month_all!E16)</f>
         <v/>
       </c>
       <c r="F19" s="23" t="str">
-        <f>IF(_tag_month_all!F17=0,"",_tag_month_all!F17)</f>
+        <f>IF(_tag_month_all!F16="","",_tag_month_all!F16)</f>
         <v/>
       </c>
       <c r="G19" s="23" t="str">
@@ -3380,15 +3373,15 @@
         <v/>
       </c>
       <c r="L19" s="24" t="str">
-        <f>IF(_tag_month_all!L17=0,"",_tag_month_all!L17)</f>
+        <f>IF(_tag_month_all!I16=0,"",_tag_month_all!I16/SUM(_tag_month_all!$I16,_tag_month_all!$J16,_tag_month_all!$K16))</f>
         <v/>
       </c>
       <c r="M19" s="24" t="str">
-        <f>IF(_tag_month_all!M17=0,"",_tag_month_all!M17)</f>
+        <f>IF(_tag_month_all!J16=0,"",_tag_month_all!J16/SUM(_tag_month_all!$I16,_tag_month_all!$J16,_tag_month_all!$K16))</f>
         <v/>
       </c>
       <c r="N19" s="24" t="str">
-        <f>IF(_tag_month_all!N17=0,"",_tag_month_all!N17)</f>
+        <f>IF(_tag_month_all!K16=0,"",_tag_month_all!K16/SUM(_tag_month_all!$I16,_tag_month_all!$J16,_tag_month_all!$K16))</f>
         <v/>
       </c>
       <c r="O19" s="32" t="str">
@@ -3404,7 +3397,7 @@
         <v/>
       </c>
       <c r="R19" s="32" t="str">
-        <f>IF(_tag_month_all!R17=0,"",_tag_month_all!R17)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S19" s="23" t="str">
@@ -3457,15 +3450,15 @@
         <v/>
       </c>
       <c r="D20" s="23" t="str">
-        <f>IF(_tag_month_all!D18+_tag_month_all!C18=0,"",_tag_month_all!D18+_tag_month_all!C18)</f>
+        <f>IF(_tag_month_all!C17="","",_tag_month_all!C17)</f>
         <v/>
       </c>
       <c r="E20" s="23" t="str">
-        <f>IF(_tag_month_all!E18=0,"",_tag_month_all!E18)</f>
+        <f>IF(_tag_month_all!E17="","",_tag_month_all!E17)</f>
         <v/>
       </c>
       <c r="F20" s="23" t="str">
-        <f>IF(_tag_month_all!F18=0,"",_tag_month_all!F18)</f>
+        <f>IF(_tag_month_all!F17="","",_tag_month_all!F17)</f>
         <v/>
       </c>
       <c r="G20" s="23" t="str">
@@ -3489,15 +3482,15 @@
         <v/>
       </c>
       <c r="L20" s="24" t="str">
-        <f>IF(_tag_month_all!L18=0,"",_tag_month_all!L18)</f>
+        <f>IF(_tag_month_all!I17=0,"",_tag_month_all!I17/SUM(_tag_month_all!$I17,_tag_month_all!$J17,_tag_month_all!$K17))</f>
         <v/>
       </c>
       <c r="M20" s="24" t="str">
-        <f>IF(_tag_month_all!M18=0,"",_tag_month_all!M18)</f>
+        <f>IF(_tag_month_all!J17=0,"",_tag_month_all!J17/SUM(_tag_month_all!$I17,_tag_month_all!$J17,_tag_month_all!$K17))</f>
         <v/>
       </c>
       <c r="N20" s="24" t="str">
-        <f>IF(_tag_month_all!N18=0,"",_tag_month_all!N18)</f>
+        <f>IF(_tag_month_all!K17=0,"",_tag_month_all!K17/SUM(_tag_month_all!$I17,_tag_month_all!$J17,_tag_month_all!$K17))</f>
         <v/>
       </c>
       <c r="O20" s="32" t="str">
@@ -3513,7 +3506,7 @@
         <v/>
       </c>
       <c r="R20" s="32" t="str">
-        <f>IF(_tag_month_all!R18=0,"",_tag_month_all!R18)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S20" s="23" t="str">
@@ -3566,15 +3559,15 @@
         <v/>
       </c>
       <c r="D21" s="23" t="str">
-        <f>IF(_tag_month_all!D19+_tag_month_all!C19=0,"",_tag_month_all!D19+_tag_month_all!C19)</f>
+        <f>IF(_tag_month_all!C18="","",_tag_month_all!C18)</f>
         <v/>
       </c>
       <c r="E21" s="23" t="str">
-        <f>IF(_tag_month_all!E19=0,"",_tag_month_all!E19)</f>
+        <f>IF(_tag_month_all!E18="","",_tag_month_all!E18)</f>
         <v/>
       </c>
       <c r="F21" s="23" t="str">
-        <f>IF(_tag_month_all!F19=0,"",_tag_month_all!F19)</f>
+        <f>IF(_tag_month_all!F18="","",_tag_month_all!F18)</f>
         <v/>
       </c>
       <c r="G21" s="23" t="str">
@@ -3598,15 +3591,15 @@
         <v/>
       </c>
       <c r="L21" s="24" t="str">
-        <f>IF(_tag_month_all!L19=0,"",_tag_month_all!L19)</f>
+        <f>IF(_tag_month_all!I18=0,"",_tag_month_all!I18/SUM(_tag_month_all!$I18,_tag_month_all!$J18,_tag_month_all!$K18))</f>
         <v/>
       </c>
       <c r="M21" s="24" t="str">
-        <f>IF(_tag_month_all!M19=0,"",_tag_month_all!M19)</f>
+        <f>IF(_tag_month_all!J18=0,"",_tag_month_all!J18/SUM(_tag_month_all!$I18,_tag_month_all!$J18,_tag_month_all!$K18))</f>
         <v/>
       </c>
       <c r="N21" s="24" t="str">
-        <f>IF(_tag_month_all!N19=0,"",_tag_month_all!N19)</f>
+        <f>IF(_tag_month_all!K18=0,"",_tag_month_all!K18/SUM(_tag_month_all!$I18,_tag_month_all!$J18,_tag_month_all!$K18))</f>
         <v/>
       </c>
       <c r="O21" s="32" t="str">
@@ -3622,7 +3615,7 @@
         <v/>
       </c>
       <c r="R21" s="32" t="str">
-        <f>IF(_tag_month_all!R19=0,"",_tag_month_all!R19)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S21" s="23" t="str">
@@ -3675,15 +3668,15 @@
         <v/>
       </c>
       <c r="D22" s="23" t="str">
-        <f>IF(_tag_month_all!D20+_tag_month_all!C20=0,"",_tag_month_all!D20+_tag_month_all!C20)</f>
+        <f>IF(_tag_month_all!C19="","",_tag_month_all!C19)</f>
         <v/>
       </c>
       <c r="E22" s="23" t="str">
-        <f>IF(_tag_month_all!E20=0,"",_tag_month_all!E20)</f>
+        <f>IF(_tag_month_all!E19="","",_tag_month_all!E19)</f>
         <v/>
       </c>
       <c r="F22" s="23" t="str">
-        <f>IF(_tag_month_all!F20=0,"",_tag_month_all!F20)</f>
+        <f>IF(_tag_month_all!F19="","",_tag_month_all!F19)</f>
         <v/>
       </c>
       <c r="G22" s="23" t="str">
@@ -3707,15 +3700,15 @@
         <v/>
       </c>
       <c r="L22" s="24" t="str">
-        <f>IF(_tag_month_all!L20=0,"",_tag_month_all!L20)</f>
+        <f>IF(_tag_month_all!I19=0,"",_tag_month_all!I19/SUM(_tag_month_all!$I19,_tag_month_all!$J19,_tag_month_all!$K19))</f>
         <v/>
       </c>
       <c r="M22" s="24" t="str">
-        <f>IF(_tag_month_all!M20=0,"",_tag_month_all!M20)</f>
+        <f>IF(_tag_month_all!J19=0,"",_tag_month_all!J19/SUM(_tag_month_all!$I19,_tag_month_all!$J19,_tag_month_all!$K19))</f>
         <v/>
       </c>
       <c r="N22" s="24" t="str">
-        <f>IF(_tag_month_all!N20=0,"",_tag_month_all!N20)</f>
+        <f>IF(_tag_month_all!K19=0,"",_tag_month_all!K19/SUM(_tag_month_all!$I19,_tag_month_all!$J19,_tag_month_all!$K19))</f>
         <v/>
       </c>
       <c r="O22" s="32" t="str">
@@ -3731,7 +3724,7 @@
         <v/>
       </c>
       <c r="R22" s="32" t="str">
-        <f>IF(_tag_month_all!R20=0,"",_tag_month_all!R20)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S22" s="23" t="str">
@@ -3784,15 +3777,15 @@
         <v/>
       </c>
       <c r="D23" s="23" t="str">
-        <f>IF(_tag_month_all!D21+_tag_month_all!C21=0,"",_tag_month_all!D21+_tag_month_all!C21)</f>
+        <f>IF(_tag_month_all!C20="","",_tag_month_all!C20)</f>
         <v/>
       </c>
       <c r="E23" s="23" t="str">
-        <f>IF(_tag_month_all!E21=0,"",_tag_month_all!E21)</f>
+        <f>IF(_tag_month_all!E20="","",_tag_month_all!E20)</f>
         <v/>
       </c>
       <c r="F23" s="23" t="str">
-        <f>IF(_tag_month_all!F21=0,"",_tag_month_all!F21)</f>
+        <f>IF(_tag_month_all!F20="","",_tag_month_all!F20)</f>
         <v/>
       </c>
       <c r="G23" s="23" t="str">
@@ -3816,15 +3809,15 @@
         <v/>
       </c>
       <c r="L23" s="24" t="str">
-        <f>IF(_tag_month_all!L21=0,"",_tag_month_all!L21)</f>
+        <f>IF(_tag_month_all!I20=0,"",_tag_month_all!I20/SUM(_tag_month_all!$I20,_tag_month_all!$J20,_tag_month_all!$K20))</f>
         <v/>
       </c>
       <c r="M23" s="24" t="str">
-        <f>IF(_tag_month_all!M21=0,"",_tag_month_all!M21)</f>
+        <f>IF(_tag_month_all!J20=0,"",_tag_month_all!J20/SUM(_tag_month_all!$I20,_tag_month_all!$J20,_tag_month_all!$K20))</f>
         <v/>
       </c>
       <c r="N23" s="24" t="str">
-        <f>IF(_tag_month_all!N21=0,"",_tag_month_all!N21)</f>
+        <f>IF(_tag_month_all!K20=0,"",_tag_month_all!K20/SUM(_tag_month_all!$I20,_tag_month_all!$J20,_tag_month_all!$K20))</f>
         <v/>
       </c>
       <c r="O23" s="32" t="str">
@@ -3840,7 +3833,7 @@
         <v/>
       </c>
       <c r="R23" s="32" t="str">
-        <f>IF(_tag_month_all!R21=0,"",_tag_month_all!R21)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S23" s="23" t="str">
@@ -3893,15 +3886,15 @@
         <v/>
       </c>
       <c r="D24" s="23" t="str">
-        <f>IF(_tag_month_all!D22+_tag_month_all!C22=0,"",_tag_month_all!D22+_tag_month_all!C22)</f>
+        <f>IF(_tag_month_all!C21="","",_tag_month_all!C21)</f>
         <v/>
       </c>
       <c r="E24" s="23" t="str">
-        <f>IF(_tag_month_all!E22=0,"",_tag_month_all!E22)</f>
+        <f>IF(_tag_month_all!E21="","",_tag_month_all!E21)</f>
         <v/>
       </c>
       <c r="F24" s="23" t="str">
-        <f>IF(_tag_month_all!F22=0,"",_tag_month_all!F22)</f>
+        <f>IF(_tag_month_all!F21="","",_tag_month_all!F21)</f>
         <v/>
       </c>
       <c r="G24" s="23" t="str">
@@ -3925,15 +3918,15 @@
         <v/>
       </c>
       <c r="L24" s="24" t="str">
-        <f>IF(_tag_month_all!L22=0,"",_tag_month_all!L22)</f>
+        <f>IF(_tag_month_all!I21=0,"",_tag_month_all!I21/SUM(_tag_month_all!$I21,_tag_month_all!$J21,_tag_month_all!$K21))</f>
         <v/>
       </c>
       <c r="M24" s="24" t="str">
-        <f>IF(_tag_month_all!M22=0,"",_tag_month_all!M22)</f>
+        <f>IF(_tag_month_all!J21=0,"",_tag_month_all!J21/SUM(_tag_month_all!$I21,_tag_month_all!$J21,_tag_month_all!$K21))</f>
         <v/>
       </c>
       <c r="N24" s="24" t="str">
-        <f>IF(_tag_month_all!N22=0,"",_tag_month_all!N22)</f>
+        <f>IF(_tag_month_all!K21=0,"",_tag_month_all!K21/SUM(_tag_month_all!$I21,_tag_month_all!$J21,_tag_month_all!$K21))</f>
         <v/>
       </c>
       <c r="O24" s="32" t="str">
@@ -3949,7 +3942,7 @@
         <v/>
       </c>
       <c r="R24" s="32" t="str">
-        <f>IF(_tag_month_all!R22=0,"",_tag_month_all!R22)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S24" s="23" t="str">
@@ -4002,15 +3995,15 @@
         <v/>
       </c>
       <c r="D25" s="23" t="str">
-        <f>IF(_tag_month_all!D23+_tag_month_all!C23=0,"",_tag_month_all!D23+_tag_month_all!C23)</f>
+        <f>IF(_tag_month_all!C22="","",_tag_month_all!C22)</f>
         <v/>
       </c>
       <c r="E25" s="23" t="str">
-        <f>IF(_tag_month_all!E23=0,"",_tag_month_all!E23)</f>
+        <f>IF(_tag_month_all!E22="","",_tag_month_all!E22)</f>
         <v/>
       </c>
       <c r="F25" s="23" t="str">
-        <f>IF(_tag_month_all!F23=0,"",_tag_month_all!F23)</f>
+        <f>IF(_tag_month_all!F22="","",_tag_month_all!F22)</f>
         <v/>
       </c>
       <c r="G25" s="23" t="str">
@@ -4034,15 +4027,15 @@
         <v/>
       </c>
       <c r="L25" s="24" t="str">
-        <f>IF(_tag_month_all!L23=0,"",_tag_month_all!L23)</f>
+        <f>IF(_tag_month_all!I22=0,"",_tag_month_all!I22/SUM(_tag_month_all!$I22,_tag_month_all!$J22,_tag_month_all!$K22))</f>
         <v/>
       </c>
       <c r="M25" s="24" t="str">
-        <f>IF(_tag_month_all!M23=0,"",_tag_month_all!M23)</f>
+        <f>IF(_tag_month_all!J22=0,"",_tag_month_all!J22/SUM(_tag_month_all!$I22,_tag_month_all!$J22,_tag_month_all!$K22))</f>
         <v/>
       </c>
       <c r="N25" s="24" t="str">
-        <f>IF(_tag_month_all!N23=0,"",_tag_month_all!N23)</f>
+        <f>IF(_tag_month_all!K22=0,"",_tag_month_all!K22/SUM(_tag_month_all!$I22,_tag_month_all!$J22,_tag_month_all!$K22))</f>
         <v/>
       </c>
       <c r="O25" s="32" t="str">
@@ -4058,7 +4051,7 @@
         <v/>
       </c>
       <c r="R25" s="32" t="str">
-        <f>IF(_tag_month_all!R23=0,"",_tag_month_all!R23)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S25" s="23" t="str">
@@ -4111,15 +4104,15 @@
         <v/>
       </c>
       <c r="D26" s="23" t="str">
-        <f>IF(_tag_month_all!D24+_tag_month_all!C24=0,"",_tag_month_all!D24+_tag_month_all!C24)</f>
+        <f>IF(_tag_month_all!C23="","",_tag_month_all!C23)</f>
         <v/>
       </c>
       <c r="E26" s="23" t="str">
-        <f>IF(_tag_month_all!E24=0,"",_tag_month_all!E24)</f>
+        <f>IF(_tag_month_all!E23="","",_tag_month_all!E23)</f>
         <v/>
       </c>
       <c r="F26" s="23" t="str">
-        <f>IF(_tag_month_all!F24=0,"",_tag_month_all!F24)</f>
+        <f>IF(_tag_month_all!F23="","",_tag_month_all!F23)</f>
         <v/>
       </c>
       <c r="G26" s="23" t="str">
@@ -4143,15 +4136,15 @@
         <v/>
       </c>
       <c r="L26" s="24" t="str">
-        <f>IF(_tag_month_all!L24=0,"",_tag_month_all!L24)</f>
+        <f>IF(_tag_month_all!I23=0,"",_tag_month_all!I23/SUM(_tag_month_all!$I23,_tag_month_all!$J23,_tag_month_all!$K23))</f>
         <v/>
       </c>
       <c r="M26" s="24" t="str">
-        <f>IF(_tag_month_all!M24=0,"",_tag_month_all!M24)</f>
+        <f>IF(_tag_month_all!J23=0,"",_tag_month_all!J23/SUM(_tag_month_all!$I23,_tag_month_all!$J23,_tag_month_all!$K23))</f>
         <v/>
       </c>
       <c r="N26" s="24" t="str">
-        <f>IF(_tag_month_all!N24=0,"",_tag_month_all!N24)</f>
+        <f>IF(_tag_month_all!K23=0,"",_tag_month_all!K23/SUM(_tag_month_all!$I23,_tag_month_all!$J23,_tag_month_all!$K23))</f>
         <v/>
       </c>
       <c r="O26" s="32" t="str">
@@ -4167,7 +4160,7 @@
         <v/>
       </c>
       <c r="R26" s="32" t="str">
-        <f>IF(_tag_month_all!R24=0,"",_tag_month_all!R24)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S26" s="23" t="str">
@@ -4220,15 +4213,15 @@
         <v/>
       </c>
       <c r="D27" s="23" t="str">
-        <f>IF(_tag_month_all!D25+_tag_month_all!C25=0,"",_tag_month_all!D25+_tag_month_all!C25)</f>
+        <f>IF(_tag_month_all!C24="","",_tag_month_all!C24)</f>
         <v/>
       </c>
       <c r="E27" s="23" t="str">
-        <f>IF(_tag_month_all!E25=0,"",_tag_month_all!E25)</f>
+        <f>IF(_tag_month_all!E24="","",_tag_month_all!E24)</f>
         <v/>
       </c>
       <c r="F27" s="23" t="str">
-        <f>IF(_tag_month_all!F25=0,"",_tag_month_all!F25)</f>
+        <f>IF(_tag_month_all!F24="","",_tag_month_all!F24)</f>
         <v/>
       </c>
       <c r="G27" s="23" t="str">
@@ -4252,15 +4245,15 @@
         <v/>
       </c>
       <c r="L27" s="24" t="str">
-        <f>IF(_tag_month_all!L25=0,"",_tag_month_all!L25)</f>
+        <f>IF(_tag_month_all!I24=0,"",_tag_month_all!I24/SUM(_tag_month_all!$I24,_tag_month_all!$J24,_tag_month_all!$K24))</f>
         <v/>
       </c>
       <c r="M27" s="24" t="str">
-        <f>IF(_tag_month_all!M25=0,"",_tag_month_all!M25)</f>
+        <f>IF(_tag_month_all!J24=0,"",_tag_month_all!J24/SUM(_tag_month_all!$I24,_tag_month_all!$J24,_tag_month_all!$K24))</f>
         <v/>
       </c>
       <c r="N27" s="24" t="str">
-        <f>IF(_tag_month_all!N25=0,"",_tag_month_all!N25)</f>
+        <f>IF(_tag_month_all!K24=0,"",_tag_month_all!K24/SUM(_tag_month_all!$I24,_tag_month_all!$J24,_tag_month_all!$K24))</f>
         <v/>
       </c>
       <c r="O27" s="32" t="str">
@@ -4276,7 +4269,7 @@
         <v/>
       </c>
       <c r="R27" s="32" t="str">
-        <f>IF(_tag_month_all!R25=0,"",_tag_month_all!R25)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S27" s="23" t="str">
@@ -4329,15 +4322,15 @@
         <v/>
       </c>
       <c r="D28" s="23" t="str">
-        <f>IF(_tag_month_all!D26+_tag_month_all!C26=0,"",_tag_month_all!D26+_tag_month_all!C26)</f>
+        <f>IF(_tag_month_all!C25="","",_tag_month_all!C25)</f>
         <v/>
       </c>
       <c r="E28" s="23" t="str">
-        <f>IF(_tag_month_all!E26=0,"",_tag_month_all!E26)</f>
+        <f>IF(_tag_month_all!E25="","",_tag_month_all!E25)</f>
         <v/>
       </c>
       <c r="F28" s="23" t="str">
-        <f>IF(_tag_month_all!F26=0,"",_tag_month_all!F26)</f>
+        <f>IF(_tag_month_all!F25="","",_tag_month_all!F25)</f>
         <v/>
       </c>
       <c r="G28" s="23" t="str">
@@ -4361,15 +4354,15 @@
         <v/>
       </c>
       <c r="L28" s="24" t="str">
-        <f>IF(_tag_month_all!L26=0,"",_tag_month_all!L26)</f>
+        <f>IF(_tag_month_all!I25=0,"",_tag_month_all!I25/SUM(_tag_month_all!$I25,_tag_month_all!$J25,_tag_month_all!$K25))</f>
         <v/>
       </c>
       <c r="M28" s="24" t="str">
-        <f>IF(_tag_month_all!M26=0,"",_tag_month_all!M26)</f>
+        <f>IF(_tag_month_all!J25=0,"",_tag_month_all!J25/SUM(_tag_month_all!$I25,_tag_month_all!$J25,_tag_month_all!$K25))</f>
         <v/>
       </c>
       <c r="N28" s="24" t="str">
-        <f>IF(_tag_month_all!N26=0,"",_tag_month_all!N26)</f>
+        <f>IF(_tag_month_all!K25=0,"",_tag_month_all!K25/SUM(_tag_month_all!$I25,_tag_month_all!$J25,_tag_month_all!$K25))</f>
         <v/>
       </c>
       <c r="O28" s="32" t="str">
@@ -4385,7 +4378,7 @@
         <v/>
       </c>
       <c r="R28" s="32" t="str">
-        <f>IF(_tag_month_all!R26=0,"",_tag_month_all!R26)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S28" s="23" t="str">
@@ -4438,15 +4431,15 @@
         <v/>
       </c>
       <c r="D29" s="23" t="str">
-        <f>IF(_tag_month_all!D27+_tag_month_all!C27=0,"",_tag_month_all!D27+_tag_month_all!C27)</f>
+        <f>IF(_tag_month_all!C26="","",_tag_month_all!C26)</f>
         <v/>
       </c>
       <c r="E29" s="23" t="str">
-        <f>IF(_tag_month_all!E27=0,"",_tag_month_all!E27)</f>
+        <f>IF(_tag_month_all!E26="","",_tag_month_all!E26)</f>
         <v/>
       </c>
       <c r="F29" s="23" t="str">
-        <f>IF(_tag_month_all!F27=0,"",_tag_month_all!F27)</f>
+        <f>IF(_tag_month_all!F26="","",_tag_month_all!F26)</f>
         <v/>
       </c>
       <c r="G29" s="23" t="str">
@@ -4470,15 +4463,15 @@
         <v/>
       </c>
       <c r="L29" s="24" t="str">
-        <f>IF(_tag_month_all!L27=0,"",_tag_month_all!L27)</f>
+        <f>IF(_tag_month_all!I26=0,"",_tag_month_all!I26/SUM(_tag_month_all!$I26,_tag_month_all!$J26,_tag_month_all!$K26))</f>
         <v/>
       </c>
       <c r="M29" s="24" t="str">
-        <f>IF(_tag_month_all!M27=0,"",_tag_month_all!M27)</f>
+        <f>IF(_tag_month_all!J26=0,"",_tag_month_all!J26/SUM(_tag_month_all!$I26,_tag_month_all!$J26,_tag_month_all!$K26))</f>
         <v/>
       </c>
       <c r="N29" s="24" t="str">
-        <f>IF(_tag_month_all!N27=0,"",_tag_month_all!N27)</f>
+        <f>IF(_tag_month_all!K26=0,"",_tag_month_all!K26/SUM(_tag_month_all!$I26,_tag_month_all!$J26,_tag_month_all!$K26))</f>
         <v/>
       </c>
       <c r="O29" s="32" t="str">
@@ -4494,7 +4487,7 @@
         <v/>
       </c>
       <c r="R29" s="32" t="str">
-        <f>IF(_tag_month_all!R27=0,"",_tag_month_all!R27)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S29" s="23" t="str">
@@ -4547,15 +4540,15 @@
         <v/>
       </c>
       <c r="D30" s="23" t="str">
-        <f>IF(_tag_month_all!D28+_tag_month_all!C28=0,"",_tag_month_all!D28+_tag_month_all!C28)</f>
+        <f>IF(_tag_month_all!C27="","",_tag_month_all!C27)</f>
         <v/>
       </c>
       <c r="E30" s="23" t="str">
-        <f>IF(_tag_month_all!E28=0,"",_tag_month_all!E28)</f>
+        <f>IF(_tag_month_all!E27="","",_tag_month_all!E27)</f>
         <v/>
       </c>
       <c r="F30" s="23" t="str">
-        <f>IF(_tag_month_all!F28=0,"",_tag_month_all!F28)</f>
+        <f>IF(_tag_month_all!F27="","",_tag_month_all!F27)</f>
         <v/>
       </c>
       <c r="G30" s="23" t="str">
@@ -4579,15 +4572,15 @@
         <v/>
       </c>
       <c r="L30" s="24" t="str">
-        <f>IF(_tag_month_all!L28=0,"",_tag_month_all!L28)</f>
+        <f>IF(_tag_month_all!I27=0,"",_tag_month_all!I27/SUM(_tag_month_all!$I27,_tag_month_all!$J27,_tag_month_all!$K27))</f>
         <v/>
       </c>
       <c r="M30" s="24" t="str">
-        <f>IF(_tag_month_all!M28=0,"",_tag_month_all!M28)</f>
+        <f>IF(_tag_month_all!J27=0,"",_tag_month_all!J27/SUM(_tag_month_all!$I27,_tag_month_all!$J27,_tag_month_all!$K27))</f>
         <v/>
       </c>
       <c r="N30" s="24" t="str">
-        <f>IF(_tag_month_all!N28=0,"",_tag_month_all!N28)</f>
+        <f>IF(_tag_month_all!K27=0,"",_tag_month_all!K27/SUM(_tag_month_all!$I27,_tag_month_all!$J27,_tag_month_all!$K27))</f>
         <v/>
       </c>
       <c r="O30" s="32" t="str">
@@ -4603,7 +4596,7 @@
         <v/>
       </c>
       <c r="R30" s="32" t="str">
-        <f>IF(_tag_month_all!R28=0,"",_tag_month_all!R28)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S30" s="23" t="str">
@@ -4656,15 +4649,15 @@
         <v/>
       </c>
       <c r="D31" s="23" t="str">
-        <f>IF(_tag_month_all!D29+_tag_month_all!C29=0,"",_tag_month_all!D29+_tag_month_all!C29)</f>
+        <f>IF(_tag_month_all!C28="","",_tag_month_all!C28)</f>
         <v/>
       </c>
       <c r="E31" s="23" t="str">
-        <f>IF(_tag_month_all!E29=0,"",_tag_month_all!E29)</f>
+        <f>IF(_tag_month_all!E28="","",_tag_month_all!E28)</f>
         <v/>
       </c>
       <c r="F31" s="23" t="str">
-        <f>IF(_tag_month_all!F29=0,"",_tag_month_all!F29)</f>
+        <f>IF(_tag_month_all!F28="","",_tag_month_all!F28)</f>
         <v/>
       </c>
       <c r="G31" s="23" t="str">
@@ -4688,15 +4681,15 @@
         <v/>
       </c>
       <c r="L31" s="24" t="str">
-        <f>IF(_tag_month_all!L29=0,"",_tag_month_all!L29)</f>
+        <f>IF(_tag_month_all!I28=0,"",_tag_month_all!I28/SUM(_tag_month_all!$I28,_tag_month_all!$J28,_tag_month_all!$K28))</f>
         <v/>
       </c>
       <c r="M31" s="24" t="str">
-        <f>IF(_tag_month_all!M29=0,"",_tag_month_all!M29)</f>
+        <f>IF(_tag_month_all!J28=0,"",_tag_month_all!J28/SUM(_tag_month_all!$I28,_tag_month_all!$J28,_tag_month_all!$K28))</f>
         <v/>
       </c>
       <c r="N31" s="24" t="str">
-        <f>IF(_tag_month_all!N29=0,"",_tag_month_all!N29)</f>
+        <f>IF(_tag_month_all!K28=0,"",_tag_month_all!K28/SUM(_tag_month_all!$I28,_tag_month_all!$J28,_tag_month_all!$K28))</f>
         <v/>
       </c>
       <c r="O31" s="32" t="str">
@@ -4712,7 +4705,7 @@
         <v/>
       </c>
       <c r="R31" s="32" t="str">
-        <f>IF(_tag_month_all!R29=0,"",_tag_month_all!R29)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S31" s="23" t="str">
@@ -4765,15 +4758,15 @@
         <v/>
       </c>
       <c r="D32" s="23" t="str">
-        <f>IF(_tag_month_all!D30+_tag_month_all!C30=0,"",_tag_month_all!D30+_tag_month_all!C30)</f>
+        <f>IF(_tag_month_all!C29="","",_tag_month_all!C29)</f>
         <v/>
       </c>
       <c r="E32" s="23" t="str">
-        <f>IF(_tag_month_all!E30=0,"",_tag_month_all!E30)</f>
+        <f>IF(_tag_month_all!E29="","",_tag_month_all!E29)</f>
         <v/>
       </c>
       <c r="F32" s="23" t="str">
-        <f>IF(_tag_month_all!F30=0,"",_tag_month_all!F30)</f>
+        <f>IF(_tag_month_all!F29="","",_tag_month_all!F29)</f>
         <v/>
       </c>
       <c r="G32" s="23" t="str">
@@ -4797,15 +4790,15 @@
         <v/>
       </c>
       <c r="L32" s="24" t="str">
-        <f>IF(_tag_month_all!L30=0,"",_tag_month_all!L30)</f>
+        <f>IF(_tag_month_all!I29=0,"",_tag_month_all!I29/SUM(_tag_month_all!$I29,_tag_month_all!$J29,_tag_month_all!$K29))</f>
         <v/>
       </c>
       <c r="M32" s="24" t="str">
-        <f>IF(_tag_month_all!M30=0,"",_tag_month_all!M30)</f>
+        <f>IF(_tag_month_all!J29=0,"",_tag_month_all!J29/SUM(_tag_month_all!$I29,_tag_month_all!$J29,_tag_month_all!$K29))</f>
         <v/>
       </c>
       <c r="N32" s="24" t="str">
-        <f>IF(_tag_month_all!N30=0,"",_tag_month_all!N30)</f>
+        <f>IF(_tag_month_all!K29=0,"",_tag_month_all!K29/SUM(_tag_month_all!$I29,_tag_month_all!$J29,_tag_month_all!$K29))</f>
         <v/>
       </c>
       <c r="O32" s="32" t="str">
@@ -4821,7 +4814,7 @@
         <v/>
       </c>
       <c r="R32" s="32" t="str">
-        <f>IF(_tag_month_all!R30=0,"",_tag_month_all!R30)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S32" s="23" t="str">
@@ -4874,15 +4867,15 @@
         <v/>
       </c>
       <c r="D33" s="23" t="str">
-        <f>IF(_tag_month_all!D31+_tag_month_all!C31=0,"",_tag_month_all!D31+_tag_month_all!C31)</f>
+        <f>IF(_tag_month_all!C30="","",_tag_month_all!C30)</f>
         <v/>
       </c>
       <c r="E33" s="23" t="str">
-        <f>IF(_tag_month_all!E31=0,"",_tag_month_all!E31)</f>
+        <f>IF(_tag_month_all!E30="","",_tag_month_all!E30)</f>
         <v/>
       </c>
       <c r="F33" s="23" t="str">
-        <f>IF(_tag_month_all!F31=0,"",_tag_month_all!F31)</f>
+        <f>IF(_tag_month_all!F30="","",_tag_month_all!F30)</f>
         <v/>
       </c>
       <c r="G33" s="23" t="str">
@@ -4906,15 +4899,15 @@
         <v/>
       </c>
       <c r="L33" s="24" t="str">
-        <f>IF(_tag_month_all!L31=0,"",_tag_month_all!L31)</f>
+        <f>IF(_tag_month_all!I30=0,"",_tag_month_all!I30/SUM(_tag_month_all!$I30,_tag_month_all!$J30,_tag_month_all!$K30))</f>
         <v/>
       </c>
       <c r="M33" s="24" t="str">
-        <f>IF(_tag_month_all!M31=0,"",_tag_month_all!M31)</f>
+        <f>IF(_tag_month_all!J30=0,"",_tag_month_all!J30/SUM(_tag_month_all!$I30,_tag_month_all!$J30,_tag_month_all!$K30))</f>
         <v/>
       </c>
       <c r="N33" s="24" t="str">
-        <f>IF(_tag_month_all!N31=0,"",_tag_month_all!N31)</f>
+        <f>IF(_tag_month_all!K30=0,"",_tag_month_all!K30/SUM(_tag_month_all!$I30,_tag_month_all!$J30,_tag_month_all!$K30))</f>
         <v/>
       </c>
       <c r="O33" s="32" t="str">
@@ -4930,7 +4923,7 @@
         <v/>
       </c>
       <c r="R33" s="32" t="str">
-        <f>IF(_tag_month_all!R31=0,"",_tag_month_all!R31)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S33" s="23" t="str">
@@ -4983,15 +4976,15 @@
         <v/>
       </c>
       <c r="D34" s="23" t="str">
-        <f>IF(_tag_month_all!D32+_tag_month_all!C32=0,"",_tag_month_all!D32+_tag_month_all!C32)</f>
+        <f>IF(_tag_month_all!C31="","",_tag_month_all!C31)</f>
         <v/>
       </c>
       <c r="E34" s="23" t="str">
-        <f>IF(_tag_month_all!E32=0,"",_tag_month_all!E32)</f>
+        <f>IF(_tag_month_all!E31="","",_tag_month_all!E31)</f>
         <v/>
       </c>
       <c r="F34" s="23" t="str">
-        <f>IF(_tag_month_all!F32=0,"",_tag_month_all!F32)</f>
+        <f>IF(_tag_month_all!F31="","",_tag_month_all!F31)</f>
         <v/>
       </c>
       <c r="G34" s="23" t="str">
@@ -5015,15 +5008,15 @@
         <v/>
       </c>
       <c r="L34" s="24" t="str">
-        <f>IF(_tag_month_all!L32=0,"",_tag_month_all!L32)</f>
+        <f>IF(_tag_month_all!I31=0,"",_tag_month_all!I31/SUM(_tag_month_all!$I31,_tag_month_all!$J31,_tag_month_all!$K31))</f>
         <v/>
       </c>
       <c r="M34" s="24" t="str">
-        <f>IF(_tag_month_all!M32=0,"",_tag_month_all!M32)</f>
+        <f>IF(_tag_month_all!J31=0,"",_tag_month_all!J31/SUM(_tag_month_all!$I31,_tag_month_all!$J31,_tag_month_all!$K31))</f>
         <v/>
       </c>
       <c r="N34" s="24" t="str">
-        <f>IF(_tag_month_all!N32=0,"",_tag_month_all!N32)</f>
+        <f>IF(_tag_month_all!K31=0,"",_tag_month_all!K31/SUM(_tag_month_all!$I31,_tag_month_all!$J31,_tag_month_all!$K31))</f>
         <v/>
       </c>
       <c r="O34" s="32" t="str">
@@ -5039,7 +5032,7 @@
         <v/>
       </c>
       <c r="R34" s="32" t="str">
-        <f>IF(_tag_month_all!R32=0,"",_tag_month_all!R32)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S34" s="23" t="str">
@@ -5092,15 +5085,15 @@
         <v/>
       </c>
       <c r="D35" s="23" t="str">
-        <f>IF(_tag_month_all!D33+_tag_month_all!C33=0,"",_tag_month_all!D33+_tag_month_all!C33)</f>
+        <f>IF(_tag_month_all!C32="","",_tag_month_all!C32)</f>
         <v/>
       </c>
       <c r="E35" s="23" t="str">
-        <f>IF(_tag_month_all!E33=0,"",_tag_month_all!E33)</f>
+        <f>IF(_tag_month_all!E32="","",_tag_month_all!E32)</f>
         <v/>
       </c>
       <c r="F35" s="23" t="str">
-        <f>IF(_tag_month_all!F33=0,"",_tag_month_all!F33)</f>
+        <f>IF(_tag_month_all!F32="","",_tag_month_all!F32)</f>
         <v/>
       </c>
       <c r="G35" s="23" t="str">
@@ -5124,15 +5117,15 @@
         <v/>
       </c>
       <c r="L35" s="24" t="str">
-        <f>IF(_tag_month_all!L33=0,"",_tag_month_all!L33)</f>
+        <f>IF(_tag_month_all!I32=0,"",_tag_month_all!I32/SUM(_tag_month_all!$I32,_tag_month_all!$J32,_tag_month_all!$K32))</f>
         <v/>
       </c>
       <c r="M35" s="24" t="str">
-        <f>IF(_tag_month_all!M33=0,"",_tag_month_all!M33)</f>
+        <f>IF(_tag_month_all!J32=0,"",_tag_month_all!J32/SUM(_tag_month_all!$I32,_tag_month_all!$J32,_tag_month_all!$K32))</f>
         <v/>
       </c>
       <c r="N35" s="24" t="str">
-        <f>IF(_tag_month_all!N33=0,"",_tag_month_all!N33)</f>
+        <f>IF(_tag_month_all!K32=0,"",_tag_month_all!K32/SUM(_tag_month_all!$I32,_tag_month_all!$J32,_tag_month_all!$K32))</f>
         <v/>
       </c>
       <c r="O35" s="32" t="str">
@@ -5148,7 +5141,7 @@
         <v/>
       </c>
       <c r="R35" s="32" t="str">
-        <f>IF(_tag_month_all!R33=0,"",_tag_month_all!R33)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S35" s="23" t="str">
@@ -5201,35 +5194,35 @@
         <v/>
       </c>
       <c r="D36" s="26" t="str">
-        <f t="shared" ref="D36:F36" si="0">IFERROR(AVERAGE(D5:D35),"")</f>
+        <f t="shared" ref="D36:F36" si="1">IFERROR(AVERAGE(D5:D35),"")</f>
         <v/>
       </c>
       <c r="E36" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F36" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G36" s="26">
-        <f t="shared" ref="G36:U36" si="1">IFERROR(SUM(G5:G35),"")</f>
+        <f t="shared" ref="G36:U36" si="2">IFERROR(SUM(G5:G35),"")</f>
         <v>0</v>
       </c>
       <c r="H36" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I36" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K36" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36" s="27" t="str">
@@ -5237,39 +5230,39 @@
         <v/>
       </c>
       <c r="M36" s="27" t="str">
-        <f t="shared" ref="M36:O36" si="2">IFERROR(AVERAGE(M5:M35),"")</f>
+        <f t="shared" ref="M36:O36" si="3">IFERROR(AVERAGE(M5:M35),"")</f>
         <v/>
       </c>
       <c r="N36" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O36" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P36" s="27" t="str">
+        <f t="shared" ref="P36:R36" si="4">IFERROR(AVERAGE(P5:P35),"")</f>
+        <v/>
+      </c>
+      <c r="Q36" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R36" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S36" s="26">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O36" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="T36" s="26">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P36" s="27" t="str">
-        <f t="shared" ref="P36:R36" si="3">IFERROR(AVERAGE(P5:P35),"")</f>
-        <v/>
-      </c>
-      <c r="Q36" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R36" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S36" s="26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T36" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="U36" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V36" s="26">
@@ -5277,23 +5270,23 @@
         <v>0</v>
       </c>
       <c r="W36" s="26">
-        <f t="shared" ref="W36:AA36" si="4">IFERROR(MAX(W5:W35),"")</f>
+        <f t="shared" ref="W36:AA36" si="5">IFERROR(MAX(W5:W35),"")</f>
         <v>0</v>
       </c>
       <c r="X36" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y36" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z36" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA36" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5591,7 +5584,7 @@
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5621,10 +5614,10 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>35</v>

--- a/excel/finished/6高炉/高炉消耗月报表.xlsx
+++ b/excel/finished/6高炉/高炉消耗月报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="月报表" sheetId="1" r:id="rId1"/>
@@ -342,10 +342,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -383,17 +383,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,21 +392,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,30 +426,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -488,9 +449,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,22 +521,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,7 +548,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,13 +596,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,25 +626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,49 +644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,7 +668,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,55 +728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,30 +821,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -862,23 +838,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,20 +896,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,49 +923,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,97 +977,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1536,7 +1536,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1682,10 +1682,10 @@
         <v>22</v>
       </c>
       <c r="M3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="O3" s="30"/>
       <c r="P3" s="20"/>
@@ -1802,7 +1802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:27">
+    <row r="5" spans="1:27">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -1847,15 +1847,15 @@
         <v/>
       </c>
       <c r="L5" s="24" t="str">
-        <f>IF(_tag_month_all!I2=0,"",_tag_month_all!I2/SUM(_tag_month_all!$I2,_tag_month_all!$J2,_tag_month_all!$K2))</f>
+        <f>IF(_tag_month_all!I2=0,"",_tag_month_all!I2*100/SUM(_tag_month_all!$I2,_tag_month_all!$J2,_tag_month_all!$K2))</f>
         <v/>
       </c>
       <c r="M5" s="24" t="str">
-        <f>IF(_tag_month_all!J2=0,"",_tag_month_all!J2/SUM(_tag_month_all!$I2,_tag_month_all!$J2,_tag_month_all!$K2))</f>
+        <f>IF(_tag_month_all!J2=0,"",_tag_month_all!J2*100/SUM(_tag_month_all!$I2,_tag_month_all!$J2,_tag_month_all!$K2))</f>
         <v/>
       </c>
       <c r="N5" s="24" t="str">
-        <f>IF(_tag_month_all!K2=0,"",_tag_month_all!K2/SUM(_tag_month_all!$I2,_tag_month_all!$J2,_tag_month_all!$K2))</f>
+        <f>IF(_tag_month_all!K2=0,"",_tag_month_all!K2*100/SUM(_tag_month_all!$I2,_tag_month_all!$J2,_tag_month_all!$K2))</f>
         <v/>
       </c>
       <c r="O5" s="32" t="str">
@@ -1866,12 +1866,12 @@
         <f>IF(_ana_month_all!O3=0,"",ROUND(_ana_month_all!O3*100,2))</f>
         <v/>
       </c>
-      <c r="Q5" s="24" t="str">
-        <f>IF(_ana_month_all!P3=0,"",ROUND(_ana_month_all!P3*100,2))</f>
-        <v/>
+      <c r="Q5" s="24">
+        <f t="shared" ref="Q5:Q35" si="0">IFERROR(SUM(L5,N5),"")</f>
+        <v>0</v>
       </c>
       <c r="R5" s="32" t="str">
-        <f t="shared" ref="R5:R35" si="0">IFERROR(SUM(I5:K5)/G5,"")</f>
+        <f t="shared" ref="R5:R35" si="1">IFERROR(SUM(I5:K5)/G5,"")</f>
         <v/>
       </c>
       <c r="S5" s="23" t="str">
@@ -1911,7 +1911,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:27">
+    <row r="6" spans="1:27">
       <c r="A6" s="22">
         <v>2</v>
       </c>
@@ -1956,15 +1956,15 @@
         <v/>
       </c>
       <c r="L6" s="24" t="str">
-        <f>IF(_tag_month_all!I3=0,"",_tag_month_all!I3/SUM(_tag_month_all!$I3,_tag_month_all!$J3,_tag_month_all!$K3))</f>
+        <f>IF(_tag_month_all!I3=0,"",_tag_month_all!I3*100/SUM(_tag_month_all!$I3,_tag_month_all!$J3,_tag_month_all!$K3))</f>
         <v/>
       </c>
       <c r="M6" s="24" t="str">
-        <f>IF(_tag_month_all!J3=0,"",_tag_month_all!J3/SUM(_tag_month_all!$I3,_tag_month_all!$J3,_tag_month_all!$K3))</f>
+        <f>IF(_tag_month_all!J3=0,"",_tag_month_all!J3*100/SUM(_tag_month_all!$I3,_tag_month_all!$J3,_tag_month_all!$K3))</f>
         <v/>
       </c>
       <c r="N6" s="24" t="str">
-        <f>IF(_tag_month_all!K3=0,"",_tag_month_all!K3/SUM(_tag_month_all!$I3,_tag_month_all!$J3,_tag_month_all!$K3))</f>
+        <f>IF(_tag_month_all!K3=0,"",_tag_month_all!K3*100/SUM(_tag_month_all!$I3,_tag_month_all!$J3,_tag_month_all!$K3))</f>
         <v/>
       </c>
       <c r="O6" s="32" t="str">
@@ -1975,12 +1975,12 @@
         <f>IF(_ana_month_all!O4=0,"",ROUND(_ana_month_all!O4*100,2))</f>
         <v/>
       </c>
-      <c r="Q6" s="24" t="str">
-        <f>IF(_ana_month_all!P4=0,"",ROUND(_ana_month_all!P4*100,2))</f>
-        <v/>
+      <c r="Q6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R6" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S6" s="23" t="str">
@@ -2065,15 +2065,15 @@
         <v/>
       </c>
       <c r="L7" s="24" t="str">
-        <f>IF(_tag_month_all!I4=0,"",_tag_month_all!I4/SUM(_tag_month_all!$I4,_tag_month_all!$J4,_tag_month_all!$K4))</f>
+        <f>IF(_tag_month_all!I4=0,"",_tag_month_all!I4*100/SUM(_tag_month_all!$I4,_tag_month_all!$J4,_tag_month_all!$K4))</f>
         <v/>
       </c>
       <c r="M7" s="24" t="str">
-        <f>IF(_tag_month_all!J4=0,"",_tag_month_all!J4/SUM(_tag_month_all!$I4,_tag_month_all!$J4,_tag_month_all!$K4))</f>
+        <f>IF(_tag_month_all!J4=0,"",_tag_month_all!J4*100/SUM(_tag_month_all!$I4,_tag_month_all!$J4,_tag_month_all!$K4))</f>
         <v/>
       </c>
       <c r="N7" s="24" t="str">
-        <f>IF(_tag_month_all!K4=0,"",_tag_month_all!K4/SUM(_tag_month_all!$I4,_tag_month_all!$J4,_tag_month_all!$K4))</f>
+        <f>IF(_tag_month_all!K4=0,"",_tag_month_all!K4*100/SUM(_tag_month_all!$I4,_tag_month_all!$J4,_tag_month_all!$K4))</f>
         <v/>
       </c>
       <c r="O7" s="32" t="str">
@@ -2084,12 +2084,12 @@
         <f>IF(_ana_month_all!O5=0,"",ROUND(_ana_month_all!O5*100,2))</f>
         <v/>
       </c>
-      <c r="Q7" s="24" t="str">
-        <f>IF(_ana_month_all!P5=0,"",ROUND(_ana_month_all!P5*100,2))</f>
-        <v/>
+      <c r="Q7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R7" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S7" s="23" t="str">
@@ -2174,15 +2174,15 @@
         <v/>
       </c>
       <c r="L8" s="24" t="str">
-        <f>IF(_tag_month_all!I5=0,"",_tag_month_all!I5/SUM(_tag_month_all!$I5,_tag_month_all!$J5,_tag_month_all!$K5))</f>
+        <f>IF(_tag_month_all!I5=0,"",_tag_month_all!I5*100/SUM(_tag_month_all!$I5,_tag_month_all!$J5,_tag_month_all!$K5))</f>
         <v/>
       </c>
       <c r="M8" s="24" t="str">
-        <f>IF(_tag_month_all!J5=0,"",_tag_month_all!J5/SUM(_tag_month_all!$I5,_tag_month_all!$J5,_tag_month_all!$K5))</f>
+        <f>IF(_tag_month_all!J5=0,"",_tag_month_all!J5*100/SUM(_tag_month_all!$I5,_tag_month_all!$J5,_tag_month_all!$K5))</f>
         <v/>
       </c>
       <c r="N8" s="24" t="str">
-        <f>IF(_tag_month_all!K5=0,"",_tag_month_all!K5/SUM(_tag_month_all!$I5,_tag_month_all!$J5,_tag_month_all!$K5))</f>
+        <f>IF(_tag_month_all!K5=0,"",_tag_month_all!K5*100/SUM(_tag_month_all!$I5,_tag_month_all!$J5,_tag_month_all!$K5))</f>
         <v/>
       </c>
       <c r="O8" s="32" t="str">
@@ -2193,12 +2193,12 @@
         <f>IF(_ana_month_all!O6=0,"",ROUND(_ana_month_all!O6*100,2))</f>
         <v/>
       </c>
-      <c r="Q8" s="24" t="str">
-        <f>IF(_ana_month_all!P6=0,"",ROUND(_ana_month_all!P6*100,2))</f>
-        <v/>
+      <c r="Q8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R8" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S8" s="23" t="str">
@@ -2283,15 +2283,15 @@
         <v/>
       </c>
       <c r="L9" s="24" t="str">
-        <f>IF(_tag_month_all!I6=0,"",_tag_month_all!I6/SUM(_tag_month_all!$I6,_tag_month_all!$J6,_tag_month_all!$K6))</f>
+        <f>IF(_tag_month_all!I6=0,"",_tag_month_all!I6*100/SUM(_tag_month_all!$I6,_tag_month_all!$J6,_tag_month_all!$K6))</f>
         <v/>
       </c>
       <c r="M9" s="24" t="str">
-        <f>IF(_tag_month_all!J6=0,"",_tag_month_all!J6/SUM(_tag_month_all!$I6,_tag_month_all!$J6,_tag_month_all!$K6))</f>
+        <f>IF(_tag_month_all!J6=0,"",_tag_month_all!J6*100/SUM(_tag_month_all!$I6,_tag_month_all!$J6,_tag_month_all!$K6))</f>
         <v/>
       </c>
       <c r="N9" s="24" t="str">
-        <f>IF(_tag_month_all!K6=0,"",_tag_month_all!K6/SUM(_tag_month_all!$I6,_tag_month_all!$J6,_tag_month_all!$K6))</f>
+        <f>IF(_tag_month_all!K6=0,"",_tag_month_all!K6*100/SUM(_tag_month_all!$I6,_tag_month_all!$J6,_tag_month_all!$K6))</f>
         <v/>
       </c>
       <c r="O9" s="32" t="str">
@@ -2302,12 +2302,12 @@
         <f>IF(_ana_month_all!O7=0,"",ROUND(_ana_month_all!O7*100,2))</f>
         <v/>
       </c>
-      <c r="Q9" s="24" t="str">
-        <f>IF(_ana_month_all!P7=0,"",ROUND(_ana_month_all!P7*100,2))</f>
-        <v/>
+      <c r="Q9" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R9" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S9" s="23" t="str">
@@ -2392,15 +2392,15 @@
         <v/>
       </c>
       <c r="L10" s="24" t="str">
-        <f>IF(_tag_month_all!I7=0,"",_tag_month_all!I7/SUM(_tag_month_all!$I7,_tag_month_all!$J7,_tag_month_all!$K7))</f>
+        <f>IF(_tag_month_all!I7=0,"",_tag_month_all!I7*100/SUM(_tag_month_all!$I7,_tag_month_all!$J7,_tag_month_all!$K7))</f>
         <v/>
       </c>
       <c r="M10" s="24" t="str">
-        <f>IF(_tag_month_all!J7=0,"",_tag_month_all!J7/SUM(_tag_month_all!$I7,_tag_month_all!$J7,_tag_month_all!$K7))</f>
+        <f>IF(_tag_month_all!J7=0,"",_tag_month_all!J7*100/SUM(_tag_month_all!$I7,_tag_month_all!$J7,_tag_month_all!$K7))</f>
         <v/>
       </c>
       <c r="N10" s="24" t="str">
-        <f>IF(_tag_month_all!K7=0,"",_tag_month_all!K7/SUM(_tag_month_all!$I7,_tag_month_all!$J7,_tag_month_all!$K7))</f>
+        <f>IF(_tag_month_all!K7=0,"",_tag_month_all!K7*100/SUM(_tag_month_all!$I7,_tag_month_all!$J7,_tag_month_all!$K7))</f>
         <v/>
       </c>
       <c r="O10" s="32" t="str">
@@ -2411,12 +2411,12 @@
         <f>IF(_ana_month_all!O8=0,"",ROUND(_ana_month_all!O8*100,2))</f>
         <v/>
       </c>
-      <c r="Q10" s="24" t="str">
-        <f>IF(_ana_month_all!P8=0,"",ROUND(_ana_month_all!P8*100,2))</f>
-        <v/>
+      <c r="Q10" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R10" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S10" s="23" t="str">
@@ -2501,15 +2501,15 @@
         <v/>
       </c>
       <c r="L11" s="24" t="str">
-        <f>IF(_tag_month_all!I8=0,"",_tag_month_all!I8/SUM(_tag_month_all!$I8,_tag_month_all!$J8,_tag_month_all!$K8))</f>
+        <f>IF(_tag_month_all!I8=0,"",_tag_month_all!I8*100/SUM(_tag_month_all!$I8,_tag_month_all!$J8,_tag_month_all!$K8))</f>
         <v/>
       </c>
       <c r="M11" s="24" t="str">
-        <f>IF(_tag_month_all!J8=0,"",_tag_month_all!J8/SUM(_tag_month_all!$I8,_tag_month_all!$J8,_tag_month_all!$K8))</f>
+        <f>IF(_tag_month_all!J8=0,"",_tag_month_all!J8*100/SUM(_tag_month_all!$I8,_tag_month_all!$J8,_tag_month_all!$K8))</f>
         <v/>
       </c>
       <c r="N11" s="24" t="str">
-        <f>IF(_tag_month_all!K8=0,"",_tag_month_all!K8/SUM(_tag_month_all!$I8,_tag_month_all!$J8,_tag_month_all!$K8))</f>
+        <f>IF(_tag_month_all!K8=0,"",_tag_month_all!K8*100/SUM(_tag_month_all!$I8,_tag_month_all!$J8,_tag_month_all!$K8))</f>
         <v/>
       </c>
       <c r="O11" s="32" t="str">
@@ -2520,12 +2520,12 @@
         <f>IF(_ana_month_all!O9=0,"",ROUND(_ana_month_all!O9*100,2))</f>
         <v/>
       </c>
-      <c r="Q11" s="24" t="str">
-        <f>IF(_ana_month_all!P9=0,"",ROUND(_ana_month_all!P9*100,2))</f>
-        <v/>
+      <c r="Q11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R11" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S11" s="23" t="str">
@@ -2610,15 +2610,15 @@
         <v/>
       </c>
       <c r="L12" s="24" t="str">
-        <f>IF(_tag_month_all!I9=0,"",_tag_month_all!I9/SUM(_tag_month_all!$I9,_tag_month_all!$J9,_tag_month_all!$K9))</f>
+        <f>IF(_tag_month_all!I9=0,"",_tag_month_all!I9*100/SUM(_tag_month_all!$I9,_tag_month_all!$J9,_tag_month_all!$K9))</f>
         <v/>
       </c>
       <c r="M12" s="24" t="str">
-        <f>IF(_tag_month_all!J9=0,"",_tag_month_all!J9/SUM(_tag_month_all!$I9,_tag_month_all!$J9,_tag_month_all!$K9))</f>
+        <f>IF(_tag_month_all!J9=0,"",_tag_month_all!J9*100/SUM(_tag_month_all!$I9,_tag_month_all!$J9,_tag_month_all!$K9))</f>
         <v/>
       </c>
       <c r="N12" s="24" t="str">
-        <f>IF(_tag_month_all!K9=0,"",_tag_month_all!K9/SUM(_tag_month_all!$I9,_tag_month_all!$J9,_tag_month_all!$K9))</f>
+        <f>IF(_tag_month_all!K9=0,"",_tag_month_all!K9*100/SUM(_tag_month_all!$I9,_tag_month_all!$J9,_tag_month_all!$K9))</f>
         <v/>
       </c>
       <c r="O12" s="32" t="str">
@@ -2629,12 +2629,12 @@
         <f>IF(_ana_month_all!O10=0,"",ROUND(_ana_month_all!O10*100,2))</f>
         <v/>
       </c>
-      <c r="Q12" s="24" t="str">
-        <f>IF(_ana_month_all!P10=0,"",ROUND(_ana_month_all!P10*100,2))</f>
-        <v/>
+      <c r="Q12" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R12" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S12" s="23" t="str">
@@ -2719,15 +2719,15 @@
         <v/>
       </c>
       <c r="L13" s="24" t="str">
-        <f>IF(_tag_month_all!I10=0,"",_tag_month_all!I10/SUM(_tag_month_all!$I10,_tag_month_all!$J10,_tag_month_all!$K10))</f>
+        <f>IF(_tag_month_all!I10=0,"",_tag_month_all!I10*100/SUM(_tag_month_all!$I10,_tag_month_all!$J10,_tag_month_all!$K10))</f>
         <v/>
       </c>
       <c r="M13" s="24" t="str">
-        <f>IF(_tag_month_all!J10=0,"",_tag_month_all!J10/SUM(_tag_month_all!$I10,_tag_month_all!$J10,_tag_month_all!$K10))</f>
+        <f>IF(_tag_month_all!J10=0,"",_tag_month_all!J10*100/SUM(_tag_month_all!$I10,_tag_month_all!$J10,_tag_month_all!$K10))</f>
         <v/>
       </c>
       <c r="N13" s="24" t="str">
-        <f>IF(_tag_month_all!K10=0,"",_tag_month_all!K10/SUM(_tag_month_all!$I10,_tag_month_all!$J10,_tag_month_all!$K10))</f>
+        <f>IF(_tag_month_all!K10=0,"",_tag_month_all!K10*100/SUM(_tag_month_all!$I10,_tag_month_all!$J10,_tag_month_all!$K10))</f>
         <v/>
       </c>
       <c r="O13" s="32" t="str">
@@ -2738,12 +2738,12 @@
         <f>IF(_ana_month_all!O11=0,"",ROUND(_ana_month_all!O11*100,2))</f>
         <v/>
       </c>
-      <c r="Q13" s="24" t="str">
-        <f>IF(_ana_month_all!P11=0,"",ROUND(_ana_month_all!P11*100,2))</f>
-        <v/>
+      <c r="Q13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R13" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S13" s="23" t="str">
@@ -2828,15 +2828,15 @@
         <v/>
       </c>
       <c r="L14" s="24" t="str">
-        <f>IF(_tag_month_all!I11=0,"",_tag_month_all!I11/SUM(_tag_month_all!$I11,_tag_month_all!$J11,_tag_month_all!$K11))</f>
+        <f>IF(_tag_month_all!I11=0,"",_tag_month_all!I11*100/SUM(_tag_month_all!$I11,_tag_month_all!$J11,_tag_month_all!$K11))</f>
         <v/>
       </c>
       <c r="M14" s="24" t="str">
-        <f>IF(_tag_month_all!J11=0,"",_tag_month_all!J11/SUM(_tag_month_all!$I11,_tag_month_all!$J11,_tag_month_all!$K11))</f>
+        <f>IF(_tag_month_all!J11=0,"",_tag_month_all!J11*100/SUM(_tag_month_all!$I11,_tag_month_all!$J11,_tag_month_all!$K11))</f>
         <v/>
       </c>
       <c r="N14" s="24" t="str">
-        <f>IF(_tag_month_all!K11=0,"",_tag_month_all!K11/SUM(_tag_month_all!$I11,_tag_month_all!$J11,_tag_month_all!$K11))</f>
+        <f>IF(_tag_month_all!K11=0,"",_tag_month_all!K11*100/SUM(_tag_month_all!$I11,_tag_month_all!$J11,_tag_month_all!$K11))</f>
         <v/>
       </c>
       <c r="O14" s="32" t="str">
@@ -2847,12 +2847,12 @@
         <f>IF(_ana_month_all!O12=0,"",ROUND(_ana_month_all!O12*100,2))</f>
         <v/>
       </c>
-      <c r="Q14" s="24" t="str">
-        <f>IF(_ana_month_all!P12=0,"",ROUND(_ana_month_all!P12*100,2))</f>
-        <v/>
+      <c r="Q14" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R14" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S14" s="23" t="str">
@@ -2937,15 +2937,15 @@
         <v/>
       </c>
       <c r="L15" s="24" t="str">
-        <f>IF(_tag_month_all!I12=0,"",_tag_month_all!I12/SUM(_tag_month_all!$I12,_tag_month_all!$J12,_tag_month_all!$K12))</f>
+        <f>IF(_tag_month_all!I12=0,"",_tag_month_all!I12*100/SUM(_tag_month_all!$I12,_tag_month_all!$J12,_tag_month_all!$K12))</f>
         <v/>
       </c>
       <c r="M15" s="24" t="str">
-        <f>IF(_tag_month_all!J12=0,"",_tag_month_all!J12/SUM(_tag_month_all!$I12,_tag_month_all!$J12,_tag_month_all!$K12))</f>
+        <f>IF(_tag_month_all!J12=0,"",_tag_month_all!J12*100/SUM(_tag_month_all!$I12,_tag_month_all!$J12,_tag_month_all!$K12))</f>
         <v/>
       </c>
       <c r="N15" s="24" t="str">
-        <f>IF(_tag_month_all!K12=0,"",_tag_month_all!K12/SUM(_tag_month_all!$I12,_tag_month_all!$J12,_tag_month_all!$K12))</f>
+        <f>IF(_tag_month_all!K12=0,"",_tag_month_all!K12*100/SUM(_tag_month_all!$I12,_tag_month_all!$J12,_tag_month_all!$K12))</f>
         <v/>
       </c>
       <c r="O15" s="32" t="str">
@@ -2956,12 +2956,12 @@
         <f>IF(_ana_month_all!O13=0,"",ROUND(_ana_month_all!O13*100,2))</f>
         <v/>
       </c>
-      <c r="Q15" s="24" t="str">
-        <f>IF(_ana_month_all!P13=0,"",ROUND(_ana_month_all!P13*100,2))</f>
-        <v/>
+      <c r="Q15" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R15" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S15" s="23" t="str">
@@ -3046,15 +3046,15 @@
         <v/>
       </c>
       <c r="L16" s="24" t="str">
-        <f>IF(_tag_month_all!I13=0,"",_tag_month_all!I13/SUM(_tag_month_all!$I13,_tag_month_all!$J13,_tag_month_all!$K13))</f>
+        <f>IF(_tag_month_all!I13=0,"",_tag_month_all!I13*100/SUM(_tag_month_all!$I13,_tag_month_all!$J13,_tag_month_all!$K13))</f>
         <v/>
       </c>
       <c r="M16" s="24" t="str">
-        <f>IF(_tag_month_all!J13=0,"",_tag_month_all!J13/SUM(_tag_month_all!$I13,_tag_month_all!$J13,_tag_month_all!$K13))</f>
+        <f>IF(_tag_month_all!J13=0,"",_tag_month_all!J13*100/SUM(_tag_month_all!$I13,_tag_month_all!$J13,_tag_month_all!$K13))</f>
         <v/>
       </c>
       <c r="N16" s="24" t="str">
-        <f>IF(_tag_month_all!K13=0,"",_tag_month_all!K13/SUM(_tag_month_all!$I13,_tag_month_all!$J13,_tag_month_all!$K13))</f>
+        <f>IF(_tag_month_all!K13=0,"",_tag_month_all!K13*100/SUM(_tag_month_all!$I13,_tag_month_all!$J13,_tag_month_all!$K13))</f>
         <v/>
       </c>
       <c r="O16" s="32" t="str">
@@ -3065,12 +3065,12 @@
         <f>IF(_ana_month_all!O14=0,"",ROUND(_ana_month_all!O14*100,2))</f>
         <v/>
       </c>
-      <c r="Q16" s="24" t="str">
-        <f>IF(_ana_month_all!P14=0,"",ROUND(_ana_month_all!P14*100,2))</f>
-        <v/>
+      <c r="Q16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R16" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S16" s="23" t="str">
@@ -3155,15 +3155,15 @@
         <v/>
       </c>
       <c r="L17" s="24" t="str">
-        <f>IF(_tag_month_all!I14=0,"",_tag_month_all!I14/SUM(_tag_month_all!$I14,_tag_month_all!$J14,_tag_month_all!$K14))</f>
+        <f>IF(_tag_month_all!I14=0,"",_tag_month_all!I14*100/SUM(_tag_month_all!$I14,_tag_month_all!$J14,_tag_month_all!$K14))</f>
         <v/>
       </c>
       <c r="M17" s="24" t="str">
-        <f>IF(_tag_month_all!J14=0,"",_tag_month_all!J14/SUM(_tag_month_all!$I14,_tag_month_all!$J14,_tag_month_all!$K14))</f>
+        <f>IF(_tag_month_all!J14=0,"",_tag_month_all!J14*100/SUM(_tag_month_all!$I14,_tag_month_all!$J14,_tag_month_all!$K14))</f>
         <v/>
       </c>
       <c r="N17" s="24" t="str">
-        <f>IF(_tag_month_all!K14=0,"",_tag_month_all!K14/SUM(_tag_month_all!$I14,_tag_month_all!$J14,_tag_month_all!$K14))</f>
+        <f>IF(_tag_month_all!K14=0,"",_tag_month_all!K14*100/SUM(_tag_month_all!$I14,_tag_month_all!$J14,_tag_month_all!$K14))</f>
         <v/>
       </c>
       <c r="O17" s="32" t="str">
@@ -3174,12 +3174,12 @@
         <f>IF(_ana_month_all!O15=0,"",ROUND(_ana_month_all!O15*100,2))</f>
         <v/>
       </c>
-      <c r="Q17" s="24" t="str">
-        <f>IF(_ana_month_all!P15=0,"",ROUND(_ana_month_all!P15*100,2))</f>
-        <v/>
+      <c r="Q17" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R17" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S17" s="23" t="str">
@@ -3264,15 +3264,15 @@
         <v/>
       </c>
       <c r="L18" s="24" t="str">
-        <f>IF(_tag_month_all!I15=0,"",_tag_month_all!I15/SUM(_tag_month_all!$I15,_tag_month_all!$J15,_tag_month_all!$K15))</f>
+        <f>IF(_tag_month_all!I15=0,"",_tag_month_all!I15*100/SUM(_tag_month_all!$I15,_tag_month_all!$J15,_tag_month_all!$K15))</f>
         <v/>
       </c>
       <c r="M18" s="24" t="str">
-        <f>IF(_tag_month_all!J15=0,"",_tag_month_all!J15/SUM(_tag_month_all!$I15,_tag_month_all!$J15,_tag_month_all!$K15))</f>
+        <f>IF(_tag_month_all!J15=0,"",_tag_month_all!J15*100/SUM(_tag_month_all!$I15,_tag_month_all!$J15,_tag_month_all!$K15))</f>
         <v/>
       </c>
       <c r="N18" s="24" t="str">
-        <f>IF(_tag_month_all!K15=0,"",_tag_month_all!K15/SUM(_tag_month_all!$I15,_tag_month_all!$J15,_tag_month_all!$K15))</f>
+        <f>IF(_tag_month_all!K15=0,"",_tag_month_all!K15*100/SUM(_tag_month_all!$I15,_tag_month_all!$J15,_tag_month_all!$K15))</f>
         <v/>
       </c>
       <c r="O18" s="32" t="str">
@@ -3283,12 +3283,12 @@
         <f>IF(_ana_month_all!O16=0,"",ROUND(_ana_month_all!O16*100,2))</f>
         <v/>
       </c>
-      <c r="Q18" s="24" t="str">
-        <f>IF(_ana_month_all!P16=0,"",ROUND(_ana_month_all!P16*100,2))</f>
-        <v/>
+      <c r="Q18" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R18" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S18" s="23" t="str">
@@ -3373,15 +3373,15 @@
         <v/>
       </c>
       <c r="L19" s="24" t="str">
-        <f>IF(_tag_month_all!I16=0,"",_tag_month_all!I16/SUM(_tag_month_all!$I16,_tag_month_all!$J16,_tag_month_all!$K16))</f>
+        <f>IF(_tag_month_all!I16=0,"",_tag_month_all!I16*100/SUM(_tag_month_all!$I16,_tag_month_all!$J16,_tag_month_all!$K16))</f>
         <v/>
       </c>
       <c r="M19" s="24" t="str">
-        <f>IF(_tag_month_all!J16=0,"",_tag_month_all!J16/SUM(_tag_month_all!$I16,_tag_month_all!$J16,_tag_month_all!$K16))</f>
+        <f>IF(_tag_month_all!J16=0,"",_tag_month_all!J16*100/SUM(_tag_month_all!$I16,_tag_month_all!$J16,_tag_month_all!$K16))</f>
         <v/>
       </c>
       <c r="N19" s="24" t="str">
-        <f>IF(_tag_month_all!K16=0,"",_tag_month_all!K16/SUM(_tag_month_all!$I16,_tag_month_all!$J16,_tag_month_all!$K16))</f>
+        <f>IF(_tag_month_all!K16=0,"",_tag_month_all!K16*100/SUM(_tag_month_all!$I16,_tag_month_all!$J16,_tag_month_all!$K16))</f>
         <v/>
       </c>
       <c r="O19" s="32" t="str">
@@ -3392,12 +3392,12 @@
         <f>IF(_ana_month_all!O17=0,"",ROUND(_ana_month_all!O17*100,2))</f>
         <v/>
       </c>
-      <c r="Q19" s="24" t="str">
-        <f>IF(_ana_month_all!P17=0,"",ROUND(_ana_month_all!P17*100,2))</f>
-        <v/>
+      <c r="Q19" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R19" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S19" s="23" t="str">
@@ -3482,15 +3482,15 @@
         <v/>
       </c>
       <c r="L20" s="24" t="str">
-        <f>IF(_tag_month_all!I17=0,"",_tag_month_all!I17/SUM(_tag_month_all!$I17,_tag_month_all!$J17,_tag_month_all!$K17))</f>
+        <f>IF(_tag_month_all!I17=0,"",_tag_month_all!I17*100/SUM(_tag_month_all!$I17,_tag_month_all!$J17,_tag_month_all!$K17))</f>
         <v/>
       </c>
       <c r="M20" s="24" t="str">
-        <f>IF(_tag_month_all!J17=0,"",_tag_month_all!J17/SUM(_tag_month_all!$I17,_tag_month_all!$J17,_tag_month_all!$K17))</f>
+        <f>IF(_tag_month_all!J17=0,"",_tag_month_all!J17*100/SUM(_tag_month_all!$I17,_tag_month_all!$J17,_tag_month_all!$K17))</f>
         <v/>
       </c>
       <c r="N20" s="24" t="str">
-        <f>IF(_tag_month_all!K17=0,"",_tag_month_all!K17/SUM(_tag_month_all!$I17,_tag_month_all!$J17,_tag_month_all!$K17))</f>
+        <f>IF(_tag_month_all!K17=0,"",_tag_month_all!K17*100/SUM(_tag_month_all!$I17,_tag_month_all!$J17,_tag_month_all!$K17))</f>
         <v/>
       </c>
       <c r="O20" s="32" t="str">
@@ -3501,12 +3501,12 @@
         <f>IF(_ana_month_all!O18=0,"",ROUND(_ana_month_all!O18*100,2))</f>
         <v/>
       </c>
-      <c r="Q20" s="24" t="str">
-        <f>IF(_ana_month_all!P18=0,"",ROUND(_ana_month_all!P18*100,2))</f>
-        <v/>
+      <c r="Q20" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R20" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S20" s="23" t="str">
@@ -3591,15 +3591,15 @@
         <v/>
       </c>
       <c r="L21" s="24" t="str">
-        <f>IF(_tag_month_all!I18=0,"",_tag_month_all!I18/SUM(_tag_month_all!$I18,_tag_month_all!$J18,_tag_month_all!$K18))</f>
+        <f>IF(_tag_month_all!I18=0,"",_tag_month_all!I18*100/SUM(_tag_month_all!$I18,_tag_month_all!$J18,_tag_month_all!$K18))</f>
         <v/>
       </c>
       <c r="M21" s="24" t="str">
-        <f>IF(_tag_month_all!J18=0,"",_tag_month_all!J18/SUM(_tag_month_all!$I18,_tag_month_all!$J18,_tag_month_all!$K18))</f>
+        <f>IF(_tag_month_all!J18=0,"",_tag_month_all!J18*100/SUM(_tag_month_all!$I18,_tag_month_all!$J18,_tag_month_all!$K18))</f>
         <v/>
       </c>
       <c r="N21" s="24" t="str">
-        <f>IF(_tag_month_all!K18=0,"",_tag_month_all!K18/SUM(_tag_month_all!$I18,_tag_month_all!$J18,_tag_month_all!$K18))</f>
+        <f>IF(_tag_month_all!K18=0,"",_tag_month_all!K18*100/SUM(_tag_month_all!$I18,_tag_month_all!$J18,_tag_month_all!$K18))</f>
         <v/>
       </c>
       <c r="O21" s="32" t="str">
@@ -3610,12 +3610,12 @@
         <f>IF(_ana_month_all!O19=0,"",ROUND(_ana_month_all!O19*100,2))</f>
         <v/>
       </c>
-      <c r="Q21" s="24" t="str">
-        <f>IF(_ana_month_all!P19=0,"",ROUND(_ana_month_all!P19*100,2))</f>
-        <v/>
+      <c r="Q21" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R21" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S21" s="23" t="str">
@@ -3700,15 +3700,15 @@
         <v/>
       </c>
       <c r="L22" s="24" t="str">
-        <f>IF(_tag_month_all!I19=0,"",_tag_month_all!I19/SUM(_tag_month_all!$I19,_tag_month_all!$J19,_tag_month_all!$K19))</f>
+        <f>IF(_tag_month_all!I19=0,"",_tag_month_all!I19*100/SUM(_tag_month_all!$I19,_tag_month_all!$J19,_tag_month_all!$K19))</f>
         <v/>
       </c>
       <c r="M22" s="24" t="str">
-        <f>IF(_tag_month_all!J19=0,"",_tag_month_all!J19/SUM(_tag_month_all!$I19,_tag_month_all!$J19,_tag_month_all!$K19))</f>
+        <f>IF(_tag_month_all!J19=0,"",_tag_month_all!J19*100/SUM(_tag_month_all!$I19,_tag_month_all!$J19,_tag_month_all!$K19))</f>
         <v/>
       </c>
       <c r="N22" s="24" t="str">
-        <f>IF(_tag_month_all!K19=0,"",_tag_month_all!K19/SUM(_tag_month_all!$I19,_tag_month_all!$J19,_tag_month_all!$K19))</f>
+        <f>IF(_tag_month_all!K19=0,"",_tag_month_all!K19*100/SUM(_tag_month_all!$I19,_tag_month_all!$J19,_tag_month_all!$K19))</f>
         <v/>
       </c>
       <c r="O22" s="32" t="str">
@@ -3719,12 +3719,12 @@
         <f>IF(_ana_month_all!O20=0,"",ROUND(_ana_month_all!O20*100,2))</f>
         <v/>
       </c>
-      <c r="Q22" s="24" t="str">
-        <f>IF(_ana_month_all!P20=0,"",ROUND(_ana_month_all!P20*100,2))</f>
-        <v/>
+      <c r="Q22" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R22" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S22" s="23" t="str">
@@ -3809,15 +3809,15 @@
         <v/>
       </c>
       <c r="L23" s="24" t="str">
-        <f>IF(_tag_month_all!I20=0,"",_tag_month_all!I20/SUM(_tag_month_all!$I20,_tag_month_all!$J20,_tag_month_all!$K20))</f>
+        <f>IF(_tag_month_all!I20=0,"",_tag_month_all!I20*100/SUM(_tag_month_all!$I20,_tag_month_all!$J20,_tag_month_all!$K20))</f>
         <v/>
       </c>
       <c r="M23" s="24" t="str">
-        <f>IF(_tag_month_all!J20=0,"",_tag_month_all!J20/SUM(_tag_month_all!$I20,_tag_month_all!$J20,_tag_month_all!$K20))</f>
+        <f>IF(_tag_month_all!J20=0,"",_tag_month_all!J20*100/SUM(_tag_month_all!$I20,_tag_month_all!$J20,_tag_month_all!$K20))</f>
         <v/>
       </c>
       <c r="N23" s="24" t="str">
-        <f>IF(_tag_month_all!K20=0,"",_tag_month_all!K20/SUM(_tag_month_all!$I20,_tag_month_all!$J20,_tag_month_all!$K20))</f>
+        <f>IF(_tag_month_all!K20=0,"",_tag_month_all!K20*100/SUM(_tag_month_all!$I20,_tag_month_all!$J20,_tag_month_all!$K20))</f>
         <v/>
       </c>
       <c r="O23" s="32" t="str">
@@ -3828,12 +3828,12 @@
         <f>IF(_ana_month_all!O21=0,"",ROUND(_ana_month_all!O21*100,2))</f>
         <v/>
       </c>
-      <c r="Q23" s="24" t="str">
-        <f>IF(_ana_month_all!P21=0,"",ROUND(_ana_month_all!P21*100,2))</f>
-        <v/>
+      <c r="Q23" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R23" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S23" s="23" t="str">
@@ -3918,15 +3918,15 @@
         <v/>
       </c>
       <c r="L24" s="24" t="str">
-        <f>IF(_tag_month_all!I21=0,"",_tag_month_all!I21/SUM(_tag_month_all!$I21,_tag_month_all!$J21,_tag_month_all!$K21))</f>
+        <f>IF(_tag_month_all!I21=0,"",_tag_month_all!I21*100/SUM(_tag_month_all!$I21,_tag_month_all!$J21,_tag_month_all!$K21))</f>
         <v/>
       </c>
       <c r="M24" s="24" t="str">
-        <f>IF(_tag_month_all!J21=0,"",_tag_month_all!J21/SUM(_tag_month_all!$I21,_tag_month_all!$J21,_tag_month_all!$K21))</f>
+        <f>IF(_tag_month_all!J21=0,"",_tag_month_all!J21*100/SUM(_tag_month_all!$I21,_tag_month_all!$J21,_tag_month_all!$K21))</f>
         <v/>
       </c>
       <c r="N24" s="24" t="str">
-        <f>IF(_tag_month_all!K21=0,"",_tag_month_all!K21/SUM(_tag_month_all!$I21,_tag_month_all!$J21,_tag_month_all!$K21))</f>
+        <f>IF(_tag_month_all!K21=0,"",_tag_month_all!K21*100/SUM(_tag_month_all!$I21,_tag_month_all!$J21,_tag_month_all!$K21))</f>
         <v/>
       </c>
       <c r="O24" s="32" t="str">
@@ -3937,12 +3937,12 @@
         <f>IF(_ana_month_all!O22=0,"",ROUND(_ana_month_all!O22*100,2))</f>
         <v/>
       </c>
-      <c r="Q24" s="24" t="str">
-        <f>IF(_ana_month_all!P22=0,"",ROUND(_ana_month_all!P22*100,2))</f>
-        <v/>
+      <c r="Q24" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R24" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S24" s="23" t="str">
@@ -4027,15 +4027,15 @@
         <v/>
       </c>
       <c r="L25" s="24" t="str">
-        <f>IF(_tag_month_all!I22=0,"",_tag_month_all!I22/SUM(_tag_month_all!$I22,_tag_month_all!$J22,_tag_month_all!$K22))</f>
+        <f>IF(_tag_month_all!I22=0,"",_tag_month_all!I22*100/SUM(_tag_month_all!$I22,_tag_month_all!$J22,_tag_month_all!$K22))</f>
         <v/>
       </c>
       <c r="M25" s="24" t="str">
-        <f>IF(_tag_month_all!J22=0,"",_tag_month_all!J22/SUM(_tag_month_all!$I22,_tag_month_all!$J22,_tag_month_all!$K22))</f>
+        <f>IF(_tag_month_all!J22=0,"",_tag_month_all!J22*100/SUM(_tag_month_all!$I22,_tag_month_all!$J22,_tag_month_all!$K22))</f>
         <v/>
       </c>
       <c r="N25" s="24" t="str">
-        <f>IF(_tag_month_all!K22=0,"",_tag_month_all!K22/SUM(_tag_month_all!$I22,_tag_month_all!$J22,_tag_month_all!$K22))</f>
+        <f>IF(_tag_month_all!K22=0,"",_tag_month_all!K22*100/SUM(_tag_month_all!$I22,_tag_month_all!$J22,_tag_month_all!$K22))</f>
         <v/>
       </c>
       <c r="O25" s="32" t="str">
@@ -4046,12 +4046,12 @@
         <f>IF(_ana_month_all!O23=0,"",ROUND(_ana_month_all!O23*100,2))</f>
         <v/>
       </c>
-      <c r="Q25" s="24" t="str">
-        <f>IF(_ana_month_all!P23=0,"",ROUND(_ana_month_all!P23*100,2))</f>
-        <v/>
+      <c r="Q25" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R25" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S25" s="23" t="str">
@@ -4136,15 +4136,15 @@
         <v/>
       </c>
       <c r="L26" s="24" t="str">
-        <f>IF(_tag_month_all!I23=0,"",_tag_month_all!I23/SUM(_tag_month_all!$I23,_tag_month_all!$J23,_tag_month_all!$K23))</f>
+        <f>IF(_tag_month_all!I23=0,"",_tag_month_all!I23*100/SUM(_tag_month_all!$I23,_tag_month_all!$J23,_tag_month_all!$K23))</f>
         <v/>
       </c>
       <c r="M26" s="24" t="str">
-        <f>IF(_tag_month_all!J23=0,"",_tag_month_all!J23/SUM(_tag_month_all!$I23,_tag_month_all!$J23,_tag_month_all!$K23))</f>
+        <f>IF(_tag_month_all!J23=0,"",_tag_month_all!J23*100/SUM(_tag_month_all!$I23,_tag_month_all!$J23,_tag_month_all!$K23))</f>
         <v/>
       </c>
       <c r="N26" s="24" t="str">
-        <f>IF(_tag_month_all!K23=0,"",_tag_month_all!K23/SUM(_tag_month_all!$I23,_tag_month_all!$J23,_tag_month_all!$K23))</f>
+        <f>IF(_tag_month_all!K23=0,"",_tag_month_all!K23*100/SUM(_tag_month_all!$I23,_tag_month_all!$J23,_tag_month_all!$K23))</f>
         <v/>
       </c>
       <c r="O26" s="32" t="str">
@@ -4155,12 +4155,12 @@
         <f>IF(_ana_month_all!O24=0,"",ROUND(_ana_month_all!O24*100,2))</f>
         <v/>
       </c>
-      <c r="Q26" s="24" t="str">
-        <f>IF(_ana_month_all!P24=0,"",ROUND(_ana_month_all!P24*100,2))</f>
-        <v/>
+      <c r="Q26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R26" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S26" s="23" t="str">
@@ -4245,15 +4245,15 @@
         <v/>
       </c>
       <c r="L27" s="24" t="str">
-        <f>IF(_tag_month_all!I24=0,"",_tag_month_all!I24/SUM(_tag_month_all!$I24,_tag_month_all!$J24,_tag_month_all!$K24))</f>
+        <f>IF(_tag_month_all!I24=0,"",_tag_month_all!I24*100/SUM(_tag_month_all!$I24,_tag_month_all!$J24,_tag_month_all!$K24))</f>
         <v/>
       </c>
       <c r="M27" s="24" t="str">
-        <f>IF(_tag_month_all!J24=0,"",_tag_month_all!J24/SUM(_tag_month_all!$I24,_tag_month_all!$J24,_tag_month_all!$K24))</f>
+        <f>IF(_tag_month_all!J24=0,"",_tag_month_all!J24*100/SUM(_tag_month_all!$I24,_tag_month_all!$J24,_tag_month_all!$K24))</f>
         <v/>
       </c>
       <c r="N27" s="24" t="str">
-        <f>IF(_tag_month_all!K24=0,"",_tag_month_all!K24/SUM(_tag_month_all!$I24,_tag_month_all!$J24,_tag_month_all!$K24))</f>
+        <f>IF(_tag_month_all!K24=0,"",_tag_month_all!K24*100/SUM(_tag_month_all!$I24,_tag_month_all!$J24,_tag_month_all!$K24))</f>
         <v/>
       </c>
       <c r="O27" s="32" t="str">
@@ -4264,12 +4264,12 @@
         <f>IF(_ana_month_all!O25=0,"",ROUND(_ana_month_all!O25*100,2))</f>
         <v/>
       </c>
-      <c r="Q27" s="24" t="str">
-        <f>IF(_ana_month_all!P25=0,"",ROUND(_ana_month_all!P25*100,2))</f>
-        <v/>
+      <c r="Q27" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R27" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S27" s="23" t="str">
@@ -4354,15 +4354,15 @@
         <v/>
       </c>
       <c r="L28" s="24" t="str">
-        <f>IF(_tag_month_all!I25=0,"",_tag_month_all!I25/SUM(_tag_month_all!$I25,_tag_month_all!$J25,_tag_month_all!$K25))</f>
+        <f>IF(_tag_month_all!I25=0,"",_tag_month_all!I25*100/SUM(_tag_month_all!$I25,_tag_month_all!$J25,_tag_month_all!$K25))</f>
         <v/>
       </c>
       <c r="M28" s="24" t="str">
-        <f>IF(_tag_month_all!J25=0,"",_tag_month_all!J25/SUM(_tag_month_all!$I25,_tag_month_all!$J25,_tag_month_all!$K25))</f>
+        <f>IF(_tag_month_all!J25=0,"",_tag_month_all!J25*100/SUM(_tag_month_all!$I25,_tag_month_all!$J25,_tag_month_all!$K25))</f>
         <v/>
       </c>
       <c r="N28" s="24" t="str">
-        <f>IF(_tag_month_all!K25=0,"",_tag_month_all!K25/SUM(_tag_month_all!$I25,_tag_month_all!$J25,_tag_month_all!$K25))</f>
+        <f>IF(_tag_month_all!K25=0,"",_tag_month_all!K25*100/SUM(_tag_month_all!$I25,_tag_month_all!$J25,_tag_month_all!$K25))</f>
         <v/>
       </c>
       <c r="O28" s="32" t="str">
@@ -4373,12 +4373,12 @@
         <f>IF(_ana_month_all!O26=0,"",ROUND(_ana_month_all!O26*100,2))</f>
         <v/>
       </c>
-      <c r="Q28" s="24" t="str">
-        <f>IF(_ana_month_all!P26=0,"",ROUND(_ana_month_all!P26*100,2))</f>
-        <v/>
+      <c r="Q28" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R28" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S28" s="23" t="str">
@@ -4463,15 +4463,15 @@
         <v/>
       </c>
       <c r="L29" s="24" t="str">
-        <f>IF(_tag_month_all!I26=0,"",_tag_month_all!I26/SUM(_tag_month_all!$I26,_tag_month_all!$J26,_tag_month_all!$K26))</f>
+        <f>IF(_tag_month_all!I26=0,"",_tag_month_all!I26*100/SUM(_tag_month_all!$I26,_tag_month_all!$J26,_tag_month_all!$K26))</f>
         <v/>
       </c>
       <c r="M29" s="24" t="str">
-        <f>IF(_tag_month_all!J26=0,"",_tag_month_all!J26/SUM(_tag_month_all!$I26,_tag_month_all!$J26,_tag_month_all!$K26))</f>
+        <f>IF(_tag_month_all!J26=0,"",_tag_month_all!J26*100/SUM(_tag_month_all!$I26,_tag_month_all!$J26,_tag_month_all!$K26))</f>
         <v/>
       </c>
       <c r="N29" s="24" t="str">
-        <f>IF(_tag_month_all!K26=0,"",_tag_month_all!K26/SUM(_tag_month_all!$I26,_tag_month_all!$J26,_tag_month_all!$K26))</f>
+        <f>IF(_tag_month_all!K26=0,"",_tag_month_all!K26*100/SUM(_tag_month_all!$I26,_tag_month_all!$J26,_tag_month_all!$K26))</f>
         <v/>
       </c>
       <c r="O29" s="32" t="str">
@@ -4482,12 +4482,12 @@
         <f>IF(_ana_month_all!O27=0,"",ROUND(_ana_month_all!O27*100,2))</f>
         <v/>
       </c>
-      <c r="Q29" s="24" t="str">
-        <f>IF(_ana_month_all!P27=0,"",ROUND(_ana_month_all!P27*100,2))</f>
-        <v/>
+      <c r="Q29" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R29" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S29" s="23" t="str">
@@ -4572,15 +4572,15 @@
         <v/>
       </c>
       <c r="L30" s="24" t="str">
-        <f>IF(_tag_month_all!I27=0,"",_tag_month_all!I27/SUM(_tag_month_all!$I27,_tag_month_all!$J27,_tag_month_all!$K27))</f>
+        <f>IF(_tag_month_all!I27=0,"",_tag_month_all!I27*100/SUM(_tag_month_all!$I27,_tag_month_all!$J27,_tag_month_all!$K27))</f>
         <v/>
       </c>
       <c r="M30" s="24" t="str">
-        <f>IF(_tag_month_all!J27=0,"",_tag_month_all!J27/SUM(_tag_month_all!$I27,_tag_month_all!$J27,_tag_month_all!$K27))</f>
+        <f>IF(_tag_month_all!J27=0,"",_tag_month_all!J27*100/SUM(_tag_month_all!$I27,_tag_month_all!$J27,_tag_month_all!$K27))</f>
         <v/>
       </c>
       <c r="N30" s="24" t="str">
-        <f>IF(_tag_month_all!K27=0,"",_tag_month_all!K27/SUM(_tag_month_all!$I27,_tag_month_all!$J27,_tag_month_all!$K27))</f>
+        <f>IF(_tag_month_all!K27=0,"",_tag_month_all!K27*100/SUM(_tag_month_all!$I27,_tag_month_all!$J27,_tag_month_all!$K27))</f>
         <v/>
       </c>
       <c r="O30" s="32" t="str">
@@ -4591,12 +4591,12 @@
         <f>IF(_ana_month_all!O28=0,"",ROUND(_ana_month_all!O28*100,2))</f>
         <v/>
       </c>
-      <c r="Q30" s="24" t="str">
-        <f>IF(_ana_month_all!P28=0,"",ROUND(_ana_month_all!P28*100,2))</f>
-        <v/>
+      <c r="Q30" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R30" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S30" s="23" t="str">
@@ -4681,15 +4681,15 @@
         <v/>
       </c>
       <c r="L31" s="24" t="str">
-        <f>IF(_tag_month_all!I28=0,"",_tag_month_all!I28/SUM(_tag_month_all!$I28,_tag_month_all!$J28,_tag_month_all!$K28))</f>
+        <f>IF(_tag_month_all!I28=0,"",_tag_month_all!I28*100/SUM(_tag_month_all!$I28,_tag_month_all!$J28,_tag_month_all!$K28))</f>
         <v/>
       </c>
       <c r="M31" s="24" t="str">
-        <f>IF(_tag_month_all!J28=0,"",_tag_month_all!J28/SUM(_tag_month_all!$I28,_tag_month_all!$J28,_tag_month_all!$K28))</f>
+        <f>IF(_tag_month_all!J28=0,"",_tag_month_all!J28*100/SUM(_tag_month_all!$I28,_tag_month_all!$J28,_tag_month_all!$K28))</f>
         <v/>
       </c>
       <c r="N31" s="24" t="str">
-        <f>IF(_tag_month_all!K28=0,"",_tag_month_all!K28/SUM(_tag_month_all!$I28,_tag_month_all!$J28,_tag_month_all!$K28))</f>
+        <f>IF(_tag_month_all!K28=0,"",_tag_month_all!K28*100/SUM(_tag_month_all!$I28,_tag_month_all!$J28,_tag_month_all!$K28))</f>
         <v/>
       </c>
       <c r="O31" s="32" t="str">
@@ -4700,12 +4700,12 @@
         <f>IF(_ana_month_all!O29=0,"",ROUND(_ana_month_all!O29*100,2))</f>
         <v/>
       </c>
-      <c r="Q31" s="24" t="str">
-        <f>IF(_ana_month_all!P29=0,"",ROUND(_ana_month_all!P29*100,2))</f>
-        <v/>
+      <c r="Q31" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R31" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S31" s="23" t="str">
@@ -4790,15 +4790,15 @@
         <v/>
       </c>
       <c r="L32" s="24" t="str">
-        <f>IF(_tag_month_all!I29=0,"",_tag_month_all!I29/SUM(_tag_month_all!$I29,_tag_month_all!$J29,_tag_month_all!$K29))</f>
+        <f>IF(_tag_month_all!I29=0,"",_tag_month_all!I29*100/SUM(_tag_month_all!$I29,_tag_month_all!$J29,_tag_month_all!$K29))</f>
         <v/>
       </c>
       <c r="M32" s="24" t="str">
-        <f>IF(_tag_month_all!J29=0,"",_tag_month_all!J29/SUM(_tag_month_all!$I29,_tag_month_all!$J29,_tag_month_all!$K29))</f>
+        <f>IF(_tag_month_all!J29=0,"",_tag_month_all!J29*100/SUM(_tag_month_all!$I29,_tag_month_all!$J29,_tag_month_all!$K29))</f>
         <v/>
       </c>
       <c r="N32" s="24" t="str">
-        <f>IF(_tag_month_all!K29=0,"",_tag_month_all!K29/SUM(_tag_month_all!$I29,_tag_month_all!$J29,_tag_month_all!$K29))</f>
+        <f>IF(_tag_month_all!K29=0,"",_tag_month_all!K29*100/SUM(_tag_month_all!$I29,_tag_month_all!$J29,_tag_month_all!$K29))</f>
         <v/>
       </c>
       <c r="O32" s="32" t="str">
@@ -4809,12 +4809,12 @@
         <f>IF(_ana_month_all!O30=0,"",ROUND(_ana_month_all!O30*100,2))</f>
         <v/>
       </c>
-      <c r="Q32" s="24" t="str">
-        <f>IF(_ana_month_all!P30=0,"",ROUND(_ana_month_all!P30*100,2))</f>
-        <v/>
+      <c r="Q32" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R32" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S32" s="23" t="str">
@@ -4899,15 +4899,15 @@
         <v/>
       </c>
       <c r="L33" s="24" t="str">
-        <f>IF(_tag_month_all!I30=0,"",_tag_month_all!I30/SUM(_tag_month_all!$I30,_tag_month_all!$J30,_tag_month_all!$K30))</f>
+        <f>IF(_tag_month_all!I30=0,"",_tag_month_all!I30*100/SUM(_tag_month_all!$I30,_tag_month_all!$J30,_tag_month_all!$K30))</f>
         <v/>
       </c>
       <c r="M33" s="24" t="str">
-        <f>IF(_tag_month_all!J30=0,"",_tag_month_all!J30/SUM(_tag_month_all!$I30,_tag_month_all!$J30,_tag_month_all!$K30))</f>
+        <f>IF(_tag_month_all!J30=0,"",_tag_month_all!J30*100/SUM(_tag_month_all!$I30,_tag_month_all!$J30,_tag_month_all!$K30))</f>
         <v/>
       </c>
       <c r="N33" s="24" t="str">
-        <f>IF(_tag_month_all!K30=0,"",_tag_month_all!K30/SUM(_tag_month_all!$I30,_tag_month_all!$J30,_tag_month_all!$K30))</f>
+        <f>IF(_tag_month_all!K30=0,"",_tag_month_all!K30*100/SUM(_tag_month_all!$I30,_tag_month_all!$J30,_tag_month_all!$K30))</f>
         <v/>
       </c>
       <c r="O33" s="32" t="str">
@@ -4918,12 +4918,12 @@
         <f>IF(_ana_month_all!O31=0,"",ROUND(_ana_month_all!O31*100,2))</f>
         <v/>
       </c>
-      <c r="Q33" s="24" t="str">
-        <f>IF(_ana_month_all!P31=0,"",ROUND(_ana_month_all!P31*100,2))</f>
-        <v/>
+      <c r="Q33" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R33" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S33" s="23" t="str">
@@ -5008,15 +5008,15 @@
         <v/>
       </c>
       <c r="L34" s="24" t="str">
-        <f>IF(_tag_month_all!I31=0,"",_tag_month_all!I31/SUM(_tag_month_all!$I31,_tag_month_all!$J31,_tag_month_all!$K31))</f>
+        <f>IF(_tag_month_all!I31=0,"",_tag_month_all!I31*100/SUM(_tag_month_all!$I31,_tag_month_all!$J31,_tag_month_all!$K31))</f>
         <v/>
       </c>
       <c r="M34" s="24" t="str">
-        <f>IF(_tag_month_all!J31=0,"",_tag_month_all!J31/SUM(_tag_month_all!$I31,_tag_month_all!$J31,_tag_month_all!$K31))</f>
+        <f>IF(_tag_month_all!J31=0,"",_tag_month_all!J31*100/SUM(_tag_month_all!$I31,_tag_month_all!$J31,_tag_month_all!$K31))</f>
         <v/>
       </c>
       <c r="N34" s="24" t="str">
-        <f>IF(_tag_month_all!K31=0,"",_tag_month_all!K31/SUM(_tag_month_all!$I31,_tag_month_all!$J31,_tag_month_all!$K31))</f>
+        <f>IF(_tag_month_all!K31=0,"",_tag_month_all!K31*100/SUM(_tag_month_all!$I31,_tag_month_all!$J31,_tag_month_all!$K31))</f>
         <v/>
       </c>
       <c r="O34" s="32" t="str">
@@ -5027,12 +5027,12 @@
         <f>IF(_ana_month_all!O32=0,"",ROUND(_ana_month_all!O32*100,2))</f>
         <v/>
       </c>
-      <c r="Q34" s="24" t="str">
-        <f>IF(_ana_month_all!P32=0,"",ROUND(_ana_month_all!P32*100,2))</f>
-        <v/>
+      <c r="Q34" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R34" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S34" s="23" t="str">
@@ -5117,15 +5117,15 @@
         <v/>
       </c>
       <c r="L35" s="24" t="str">
-        <f>IF(_tag_month_all!I32=0,"",_tag_month_all!I32/SUM(_tag_month_all!$I32,_tag_month_all!$J32,_tag_month_all!$K32))</f>
+        <f>IF(_tag_month_all!I32=0,"",_tag_month_all!I32*100/SUM(_tag_month_all!$I32,_tag_month_all!$J32,_tag_month_all!$K32))</f>
         <v/>
       </c>
       <c r="M35" s="24" t="str">
-        <f>IF(_tag_month_all!J32=0,"",_tag_month_all!J32/SUM(_tag_month_all!$I32,_tag_month_all!$J32,_tag_month_all!$K32))</f>
+        <f>IF(_tag_month_all!J32=0,"",_tag_month_all!J32*100/SUM(_tag_month_all!$I32,_tag_month_all!$J32,_tag_month_all!$K32))</f>
         <v/>
       </c>
       <c r="N35" s="24" t="str">
-        <f>IF(_tag_month_all!K32=0,"",_tag_month_all!K32/SUM(_tag_month_all!$I32,_tag_month_all!$J32,_tag_month_all!$K32))</f>
+        <f>IF(_tag_month_all!K32=0,"",_tag_month_all!K32*100/SUM(_tag_month_all!$I32,_tag_month_all!$J32,_tag_month_all!$K32))</f>
         <v/>
       </c>
       <c r="O35" s="32" t="str">
@@ -5136,12 +5136,12 @@
         <f>IF(_ana_month_all!O33=0,"",ROUND(_ana_month_all!O33*100,2))</f>
         <v/>
       </c>
-      <c r="Q35" s="24" t="str">
-        <f>IF(_ana_month_all!P33=0,"",ROUND(_ana_month_all!P33*100,2))</f>
-        <v/>
+      <c r="Q35" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R35" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S35" s="23" t="str">
@@ -5194,35 +5194,35 @@
         <v/>
       </c>
       <c r="D36" s="26" t="str">
-        <f t="shared" ref="D36:F36" si="1">IFERROR(AVERAGE(D5:D35),"")</f>
+        <f t="shared" ref="D36:F36" si="2">IFERROR(AVERAGE(D5:D35),"")</f>
         <v/>
       </c>
       <c r="E36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F36" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G36" s="26">
-        <f t="shared" ref="G36:U36" si="2">IFERROR(SUM(G5:G35),"")</f>
+        <f t="shared" ref="G36:U36" si="3">IFERROR(SUM(G5:G35),"")</f>
         <v>0</v>
       </c>
       <c r="H36" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L36" s="27" t="str">
@@ -5230,39 +5230,39 @@
         <v/>
       </c>
       <c r="M36" s="27" t="str">
-        <f t="shared" ref="M36:O36" si="3">IFERROR(AVERAGE(M5:M35),"")</f>
+        <f t="shared" ref="M36:O36" si="4">IFERROR(AVERAGE(M5:M35),"")</f>
         <v/>
       </c>
       <c r="N36" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O36" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P36" s="27" t="str">
+        <f t="shared" ref="P36:R36" si="5">IFERROR(AVERAGE(P5:P35),"")</f>
+        <v/>
+      </c>
+      <c r="Q36" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S36" s="26">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O36" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="T36" s="26">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P36" s="27" t="str">
-        <f t="shared" ref="P36:R36" si="4">IFERROR(AVERAGE(P5:P35),"")</f>
-        <v/>
-      </c>
-      <c r="Q36" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R36" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S36" s="26">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T36" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="U36" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V36" s="26">
@@ -5270,23 +5270,23 @@
         <v>0</v>
       </c>
       <c r="W36" s="26">
-        <f t="shared" ref="W36:AA36" si="5">IFERROR(MAX(W5:W35),"")</f>
+        <f t="shared" ref="W36:AA36" si="6">IFERROR(MAX(W5:W35),"")</f>
         <v>0</v>
       </c>
       <c r="X36" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y36" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z36" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA36" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
